--- a/doc/01_Projektplan/zeiterfassung.xlsx
+++ b/doc/01_Projektplan/zeiterfassung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="10410" windowHeight="7335"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="10410" windowHeight="7335" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="timelog" sheetId="8" r:id="rId1"/>
@@ -14,17 +14,15 @@
     <sheet name="h pro Tag" sheetId="6" r:id="rId5"/>
     <sheet name="h pro Ticket" sheetId="14" r:id="rId6"/>
     <sheet name="Charts" sheetId="11" r:id="rId7"/>
-    <sheet name="Sheet9" sheetId="15" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="timelog" localSheetId="0">timelog!$A$1:$I$54</definedName>
     <definedName name="timelog_3" localSheetId="1">'timelog-ticket'!$A$1:$C$17</definedName>
-    <definedName name="timelog_5" localSheetId="7">Sheet9!$A$1:$I$55</definedName>
     <definedName name="timelog_5" localSheetId="0">timelog!$A$1:$I$55</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId9"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -40,7 +38,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="timelog(5)" type="6" refreshedVersion="3" background="1" saveData="1">
+  <connection id="2" name="timelog(5)1" type="6" refreshedVersion="3" background="1" saveData="1">
     <textPr firstRow="2" sourceFile="Z:\home\digi\Downloads\timelog(5).csv" tab="0" comma="1">
       <textFields count="9">
         <textField type="MDY"/>
@@ -55,22 +53,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="timelog(5)1" type="6" refreshedVersion="3" background="1" saveData="1">
-    <textPr firstRow="2" sourceFile="Z:\home\digi\Downloads\timelog(5).csv" tab="0" comma="1">
-      <textFields count="9">
-        <textField type="MDY"/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-  <connection id="4" name="timelog1" type="6" refreshedVersion="3" background="1" saveData="1">
+  <connection id="3" name="timelog1" type="6" refreshedVersion="3" background="1" saveData="1">
     <textPr firstRow="2" sourceFile="Z:\home\digi\Downloads\timelog.csv" tab="0" comma="1">
       <textFields count="9">
         <textField type="MDY"/>
@@ -89,15 +72,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="63">
   <si>
     <t>Woche</t>
   </si>
   <si>
     <t>Datum</t>
-  </si>
-  <si>
-    <t>Total</t>
   </si>
   <si>
     <t>Benutzer</t>
@@ -1482,49 +1462,49 @@
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>Feature #83: Dokumentvorlage</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feature #81: Redmine Projekt aufsetzen</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Feature #125: Sitzungsprotokolle</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Feature #80: Logo erstellen</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Feature #86: Managementabläufe</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Feature #87: Qualitätsmassnahmen</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Feature #88: Glossar</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Feature #205: Sitzung 28.02.11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Feature #84: Codestyleguide erstellen</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Feature #105: Projektplan Review</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Feature #179: Sitzung 07.03.11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Feature #85: Risikomanagement erarbeiten</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Feature #91: Iterationsplanung und Arbeitspakete</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Feature #82: Sitzung 03.03.11</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Feature #78: Projektantrag erstellen</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Feature #80: Logo erstellen</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Feature #81: Redmine Projekt aufsetzen</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Feature #82: Sitzung 03.03.11</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Feature #83: Dokumentvorlage</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Feature #84: Codestyleguide erstellen</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Feature #85: Risikomanagement erarbeiten</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Feature #86: Managementabläufe</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Feature #87: Qualitätsmassnahmen</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Feature #88: Glossar</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Feature #91: Iterationsplanung und Arbeitspakete</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Feature #105: Projektplan Review</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Feature #125: Sitzungsprotokolle</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Feature #179: Sitzung 07.03.11</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Feature #205: Sitzung 28.02.11</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>Feature #213: Projektplan erstellen</c:v>
@@ -1539,49 +1519,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.75</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>48.5</c:v>
@@ -1670,15 +1650,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1699,16 +1679,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>19844</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>37040</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600869</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>46565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1730,15 +1710,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2381,19 +2361,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="timelog(5)" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="timelog(5)" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="timelog" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="timelog" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="timelog(3)" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="timelog(5)" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2683,7 +2659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:I55"/>
     </sheetView>
   </sheetViews>
@@ -2704,22 +2680,22 @@
         <v>40610</v>
       </c>
       <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1">
         <v>105</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H1">
         <v>1</v>
@@ -2730,28 +2706,28 @@
         <v>40610</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>213</v>
       </c>
       <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
         <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
       </c>
       <c r="H2">
         <v>1.5</v>
       </c>
       <c r="I2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2759,22 +2735,22 @@
         <v>40609</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>82</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -2785,22 +2761,22 @@
         <v>40609</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>80</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -2811,22 +2787,22 @@
         <v>40609</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
         <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
       </c>
       <c r="E5">
         <v>125</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -2837,22 +2813,22 @@
         <v>40609</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6">
         <v>83</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H6">
         <v>1.25</v>
@@ -2863,22 +2839,22 @@
         <v>40609</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
         <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
       </c>
       <c r="E7">
         <v>125</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H7">
         <v>0.5</v>
@@ -2889,28 +2865,28 @@
         <v>40609</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8">
         <v>84</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H8">
         <v>4</v>
       </c>
       <c r="I8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2918,22 +2894,22 @@
         <v>40609</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9">
         <v>179</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H9">
         <v>1.5</v>
@@ -2944,22 +2920,22 @@
         <v>40609</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10">
         <v>179</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H10">
         <v>1.5</v>
@@ -2970,22 +2946,22 @@
         <v>40609</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E11">
         <v>179</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H11">
         <v>1.5</v>
@@ -2996,22 +2972,22 @@
         <v>40609</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E12">
         <v>179</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H12">
         <v>1.5</v>
@@ -3022,22 +2998,22 @@
         <v>40609</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E13">
         <v>179</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H13">
         <v>1.5</v>
@@ -3048,22 +3024,22 @@
         <v>40609</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E14">
         <v>91</v>
       </c>
       <c r="F14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H14">
         <v>5</v>
@@ -3074,22 +3050,22 @@
         <v>40609</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E15">
         <v>91</v>
       </c>
       <c r="F15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H15">
         <v>5</v>
@@ -3100,22 +3076,22 @@
         <v>40609</v>
       </c>
       <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
         <v>17</v>
       </c>
-      <c r="C16" t="s">
-        <v>18</v>
-      </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E16">
         <v>105</v>
       </c>
       <c r="F16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -3126,28 +3102,28 @@
         <v>40609</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E17">
         <v>85</v>
       </c>
       <c r="F17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -3155,22 +3131,22 @@
         <v>40609</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E18">
         <v>213</v>
       </c>
       <c r="F18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" t="s">
         <v>10</v>
-      </c>
-      <c r="G18" t="s">
-        <v>11</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -3181,22 +3157,22 @@
         <v>40609</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E19">
         <v>213</v>
       </c>
       <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" t="s">
         <v>10</v>
-      </c>
-      <c r="G19" t="s">
-        <v>11</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -3207,22 +3183,22 @@
         <v>40609</v>
       </c>
       <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
         <v>17</v>
       </c>
-      <c r="C20" t="s">
-        <v>18</v>
-      </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20">
         <v>105</v>
       </c>
       <c r="F20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -3233,28 +3209,28 @@
         <v>40609</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E21">
         <v>85</v>
       </c>
       <c r="F21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H21">
         <v>1.5</v>
       </c>
       <c r="I21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -3262,22 +3238,22 @@
         <v>40608</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E22">
         <v>213</v>
       </c>
       <c r="F22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" t="s">
         <v>10</v>
-      </c>
-      <c r="G22" t="s">
-        <v>11</v>
       </c>
       <c r="H22">
         <v>3.5</v>
@@ -3288,22 +3264,22 @@
         <v>40608</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E23">
         <v>86</v>
       </c>
       <c r="F23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -3314,22 +3290,22 @@
         <v>40606</v>
       </c>
       <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
         <v>17</v>
       </c>
-      <c r="C24" t="s">
-        <v>18</v>
-      </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E24">
         <v>87</v>
       </c>
       <c r="F24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -3340,28 +3316,28 @@
         <v>40606</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E25">
         <v>213</v>
       </c>
       <c r="F25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" t="s">
         <v>10</v>
-      </c>
-      <c r="G25" t="s">
-        <v>11</v>
       </c>
       <c r="H25">
         <v>6</v>
       </c>
       <c r="I25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -3369,22 +3345,22 @@
         <v>40606</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E26">
         <v>88</v>
       </c>
       <c r="F26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -3395,22 +3371,22 @@
         <v>40606</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E27">
         <v>213</v>
       </c>
       <c r="F27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" t="s">
         <v>10</v>
-      </c>
-      <c r="G27" t="s">
-        <v>11</v>
       </c>
       <c r="H27">
         <v>4</v>
@@ -3421,28 +3397,28 @@
         <v>40606</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E28">
         <v>213</v>
       </c>
       <c r="F28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" t="s">
         <v>10</v>
-      </c>
-      <c r="G28" t="s">
-        <v>11</v>
       </c>
       <c r="H28">
         <v>6</v>
       </c>
       <c r="I28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -3450,22 +3426,22 @@
         <v>40606</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E29">
         <v>213</v>
       </c>
       <c r="F29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" t="s">
         <v>10</v>
-      </c>
-      <c r="G29" t="s">
-        <v>11</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -3476,28 +3452,28 @@
         <v>40606</v>
       </c>
       <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" t="s">
         <v>17</v>
       </c>
-      <c r="C30" t="s">
-        <v>18</v>
-      </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E30">
         <v>85</v>
       </c>
       <c r="F30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H30">
         <v>2</v>
       </c>
       <c r="I30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -3505,22 +3481,22 @@
         <v>40606</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E31">
         <v>213</v>
       </c>
       <c r="F31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" t="s">
         <v>10</v>
-      </c>
-      <c r="G31" t="s">
-        <v>11</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3531,22 +3507,22 @@
         <v>40606</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E32">
         <v>91</v>
       </c>
       <c r="F32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H32">
         <v>4</v>
@@ -3557,22 +3533,22 @@
         <v>40605</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E33">
         <v>82</v>
       </c>
       <c r="F33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H33">
         <v>3</v>
@@ -3583,22 +3559,22 @@
         <v>40605</v>
       </c>
       <c r="B34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E34">
         <v>82</v>
       </c>
       <c r="F34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H34">
         <v>3</v>
@@ -3609,22 +3585,22 @@
         <v>40605</v>
       </c>
       <c r="B35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E35">
         <v>88</v>
       </c>
       <c r="F35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -3635,22 +3611,22 @@
         <v>40605</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E36">
         <v>82</v>
       </c>
       <c r="F36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H36">
         <v>3</v>
@@ -3661,22 +3637,22 @@
         <v>40605</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E37">
         <v>82</v>
       </c>
       <c r="F37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H37">
         <v>3</v>
@@ -3687,22 +3663,22 @@
         <v>40605</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E38">
         <v>83</v>
       </c>
       <c r="F38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H38">
         <v>0.25</v>
@@ -3713,22 +3689,22 @@
         <v>40604</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E39">
         <v>213</v>
       </c>
       <c r="F39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" t="s">
         <v>10</v>
-      </c>
-      <c r="G39" t="s">
-        <v>11</v>
       </c>
       <c r="H39">
         <v>5</v>
@@ -3739,22 +3715,22 @@
         <v>40604</v>
       </c>
       <c r="B40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E40">
         <v>213</v>
       </c>
       <c r="F40" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" t="s">
         <v>10</v>
-      </c>
-      <c r="G40" t="s">
-        <v>11</v>
       </c>
       <c r="H40">
         <v>6</v>
@@ -3765,22 +3741,22 @@
         <v>40604</v>
       </c>
       <c r="B41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E41">
         <v>213</v>
       </c>
       <c r="F41" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" t="s">
         <v>10</v>
-      </c>
-      <c r="G41" t="s">
-        <v>11</v>
       </c>
       <c r="H41">
         <v>4</v>
@@ -3791,22 +3767,22 @@
         <v>40604</v>
       </c>
       <c r="B42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E42">
         <v>213</v>
       </c>
       <c r="F42" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" t="s">
         <v>10</v>
-      </c>
-      <c r="G42" t="s">
-        <v>11</v>
       </c>
       <c r="H42">
         <v>4</v>
@@ -3817,28 +3793,28 @@
         <v>40604</v>
       </c>
       <c r="B43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E43">
         <v>213</v>
       </c>
       <c r="F43" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" t="s">
         <v>10</v>
-      </c>
-      <c r="G43" t="s">
-        <v>11</v>
       </c>
       <c r="H43">
         <v>3</v>
       </c>
       <c r="I43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -3846,28 +3822,28 @@
         <v>40604</v>
       </c>
       <c r="B44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E44">
         <v>85</v>
       </c>
       <c r="F44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H44">
         <v>4.5</v>
       </c>
       <c r="I44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -3875,22 +3851,22 @@
         <v>40602</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E45">
         <v>205</v>
       </c>
       <c r="F45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H45">
         <v>0.75</v>
@@ -3901,22 +3877,22 @@
         <v>40602</v>
       </c>
       <c r="B46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E46">
         <v>205</v>
       </c>
       <c r="F46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H46">
         <v>0.75</v>
@@ -3927,22 +3903,22 @@
         <v>40602</v>
       </c>
       <c r="B47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E47">
         <v>205</v>
       </c>
       <c r="F47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H47">
         <v>0.75</v>
@@ -3953,22 +3929,22 @@
         <v>40602</v>
       </c>
       <c r="B48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E48">
         <v>205</v>
       </c>
       <c r="F48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H48">
         <v>0.75</v>
@@ -3979,22 +3955,22 @@
         <v>40602</v>
       </c>
       <c r="B49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E49">
         <v>205</v>
       </c>
       <c r="F49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H49">
         <v>0.75</v>
@@ -4005,22 +3981,22 @@
         <v>40598</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E50">
         <v>78</v>
       </c>
       <c r="F50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H50">
         <v>4</v>
@@ -4031,22 +4007,22 @@
         <v>40598</v>
       </c>
       <c r="B51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E51">
         <v>78</v>
       </c>
       <c r="F51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H51">
         <v>4</v>
@@ -4057,22 +4033,22 @@
         <v>40598</v>
       </c>
       <c r="B52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E52">
         <v>78</v>
       </c>
       <c r="F52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H52">
         <v>4</v>
@@ -4083,22 +4059,22 @@
         <v>40598</v>
       </c>
       <c r="B53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E53">
         <v>78</v>
       </c>
       <c r="F53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H53">
         <v>4</v>
@@ -4109,22 +4085,22 @@
         <v>40598</v>
       </c>
       <c r="B54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E54">
         <v>78</v>
       </c>
       <c r="F54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H54">
         <v>4</v>
@@ -4135,22 +4111,22 @@
         <v>40595</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E55">
         <v>81</v>
       </c>
       <c r="F55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -4166,7 +4142,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection sqref="A1:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4177,13 +4153,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="24" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B1">
-        <v>20</v>
+        <v>0.5</v>
       </c>
       <c r="C1">
-        <v>20</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4191,158 +4167,158 @@
         <v>48</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="24" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="24" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B4">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="24" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B5">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="24" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="24" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="24" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="24" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="24" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B11">
-        <v>14</v>
+        <v>7.5</v>
       </c>
       <c r="C11">
-        <v>14</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="24" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="24" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B13">
-        <v>1.5</v>
+        <v>14</v>
       </c>
       <c r="C13">
-        <v>1.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="24" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B14">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="C14">
-        <v>7.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="24" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="B15">
-        <v>3.75</v>
+        <v>20</v>
       </c>
       <c r="C15">
-        <v>3.75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B16">
         <v>48.5</v>
@@ -4351,18 +4327,13 @@
         <v>48.5</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17">
-        <v>137.75</v>
-      </c>
-      <c r="C17">
-        <v>137.75</v>
-      </c>
+    <row r="17" spans="1:1">
+      <c r="A17" s="24"/>
     </row>
   </sheetData>
+  <sortState ref="A1:C16">
+    <sortCondition ref="C1:C16"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4395,23 +4366,23 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>1</v>
@@ -4423,7 +4394,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="7">
         <v>40598</v>
@@ -4438,12 +4409,12 @@
         <v>40609</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="9">
         <v>1</v>
@@ -4457,7 +4428,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="13">
@@ -4471,7 +4442,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="13"/>
@@ -4485,7 +4456,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="13"/>
@@ -4499,7 +4470,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="13"/>
@@ -4513,7 +4484,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="15">
         <v>1</v>
@@ -4559,7 +4530,7 @@
         <v>1.5</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1">
         <f>SUMIF(A:A,C1,B:B)</f>
@@ -4576,7 +4547,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D5" si="0">SUMIF(A:A,C2,B:B)</f>
@@ -4593,7 +4564,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
@@ -4610,7 +4581,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
@@ -4627,7 +4598,7 @@
         <v>1.25</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
@@ -11377,7 +11348,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -11386,13 +11357,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15">
@@ -13007,8 +12978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="X79" sqref="X79"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -13016,1486 +12987,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I55"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I55"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="53.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="2">
-        <v>40610</v>
-      </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1">
-        <v>105</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="2">
-        <v>40610</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <v>213</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2">
-        <v>1.5</v>
-      </c>
-      <c r="I2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="2">
-        <v>40609</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>82</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="2">
-        <v>40609</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4">
-        <v>80</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="2">
-        <v>40609</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5">
-        <v>125</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="2">
-        <v>40609</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6">
-        <v>83</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="2">
-        <v>40609</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7">
-        <v>125</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="2">
-        <v>40609</v>
-      </c>
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8">
-        <v>84</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8">
-        <v>4</v>
-      </c>
-      <c r="I8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="2">
-        <v>40609</v>
-      </c>
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9">
-        <v>179</v>
-      </c>
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="2">
-        <v>40609</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10">
-        <v>179</v>
-      </c>
-      <c r="F10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="2">
-        <v>40609</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11">
-        <v>179</v>
-      </c>
-      <c r="F11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="2">
-        <v>40609</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12">
-        <v>179</v>
-      </c>
-      <c r="F12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="2">
-        <v>40609</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13">
-        <v>179</v>
-      </c>
-      <c r="F13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="2">
-        <v>40609</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14">
-        <v>91</v>
-      </c>
-      <c r="F14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" t="s">
-        <v>39</v>
-      </c>
-      <c r="H14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="2">
-        <v>40609</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15">
-        <v>91</v>
-      </c>
-      <c r="F15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="2">
-        <v>40609</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16">
-        <v>105</v>
-      </c>
-      <c r="F16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="2">
-        <v>40609</v>
-      </c>
-      <c r="B17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17">
-        <v>85</v>
-      </c>
-      <c r="F17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="2">
-        <v>40609</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18">
-        <v>213</v>
-      </c>
-      <c r="F18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="2">
-        <v>40609</v>
-      </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19">
-        <v>213</v>
-      </c>
-      <c r="F19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="2">
-        <v>40609</v>
-      </c>
-      <c r="B20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20">
-        <v>105</v>
-      </c>
-      <c r="F20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" t="s">
-        <v>31</v>
-      </c>
-      <c r="H20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="2">
-        <v>40609</v>
-      </c>
-      <c r="B21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21">
-        <v>85</v>
-      </c>
-      <c r="F21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21">
-        <v>1.5</v>
-      </c>
-      <c r="I21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="2">
-        <v>40608</v>
-      </c>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22">
-        <v>213</v>
-      </c>
-      <c r="F22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="2">
-        <v>40608</v>
-      </c>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23">
-        <v>86</v>
-      </c>
-      <c r="F23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" t="s">
-        <v>42</v>
-      </c>
-      <c r="H23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="2">
-        <v>40606</v>
-      </c>
-      <c r="B24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24">
-        <v>87</v>
-      </c>
-      <c r="F24" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="2">
-        <v>40606</v>
-      </c>
-      <c r="B25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25">
-        <v>213</v>
-      </c>
-      <c r="F25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25">
-        <v>6</v>
-      </c>
-      <c r="I25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="2">
-        <v>40606</v>
-      </c>
-      <c r="B26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26">
-        <v>88</v>
-      </c>
-      <c r="F26" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" t="s">
-        <v>29</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="2">
-        <v>40606</v>
-      </c>
-      <c r="B27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27">
-        <v>213</v>
-      </c>
-      <c r="F27" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" t="s">
-        <v>11</v>
-      </c>
-      <c r="H27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="2">
-        <v>40606</v>
-      </c>
-      <c r="B28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28">
-        <v>213</v>
-      </c>
-      <c r="F28" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" t="s">
-        <v>11</v>
-      </c>
-      <c r="H28">
-        <v>6</v>
-      </c>
-      <c r="I28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="2">
-        <v>40606</v>
-      </c>
-      <c r="B29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29">
-        <v>213</v>
-      </c>
-      <c r="F29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" t="s">
-        <v>11</v>
-      </c>
-      <c r="H29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="2">
-        <v>40606</v>
-      </c>
-      <c r="B30" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30">
-        <v>85</v>
-      </c>
-      <c r="F30" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" t="s">
-        <v>20</v>
-      </c>
-      <c r="H30">
-        <v>2</v>
-      </c>
-      <c r="I30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="2">
-        <v>40606</v>
-      </c>
-      <c r="B31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31">
-        <v>213</v>
-      </c>
-      <c r="F31" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="2">
-        <v>40606</v>
-      </c>
-      <c r="B32" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32">
-        <v>91</v>
-      </c>
-      <c r="F32" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" t="s">
-        <v>39</v>
-      </c>
-      <c r="H32">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="2">
-        <v>40605</v>
-      </c>
-      <c r="B33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33">
-        <v>82</v>
-      </c>
-      <c r="F33" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" t="s">
-        <v>32</v>
-      </c>
-      <c r="H33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="2">
-        <v>40605</v>
-      </c>
-      <c r="B34" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34">
-        <v>82</v>
-      </c>
-      <c r="F34" t="s">
-        <v>10</v>
-      </c>
-      <c r="G34" t="s">
-        <v>32</v>
-      </c>
-      <c r="H34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="2">
-        <v>40605</v>
-      </c>
-      <c r="B35" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35" t="s">
-        <v>33</v>
-      </c>
-      <c r="D35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35">
-        <v>88</v>
-      </c>
-      <c r="F35" t="s">
-        <v>10</v>
-      </c>
-      <c r="G35" t="s">
-        <v>29</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="2">
-        <v>40605</v>
-      </c>
-      <c r="B36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36">
-        <v>82</v>
-      </c>
-      <c r="F36" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" t="s">
-        <v>32</v>
-      </c>
-      <c r="H36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="2">
-        <v>40605</v>
-      </c>
-      <c r="B37" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37">
-        <v>82</v>
-      </c>
-      <c r="F37" t="s">
-        <v>10</v>
-      </c>
-      <c r="G37" t="s">
-        <v>32</v>
-      </c>
-      <c r="H37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="2">
-        <v>40605</v>
-      </c>
-      <c r="B38" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" t="s">
-        <v>33</v>
-      </c>
-      <c r="D38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38">
-        <v>83</v>
-      </c>
-      <c r="F38" t="s">
-        <v>10</v>
-      </c>
-      <c r="G38" t="s">
-        <v>14</v>
-      </c>
-      <c r="H38">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="2">
-        <v>40604</v>
-      </c>
-      <c r="B39" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" t="s">
-        <v>33</v>
-      </c>
-      <c r="D39" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39">
-        <v>213</v>
-      </c>
-      <c r="F39" t="s">
-        <v>10</v>
-      </c>
-      <c r="G39" t="s">
-        <v>11</v>
-      </c>
-      <c r="H39">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="2">
-        <v>40604</v>
-      </c>
-      <c r="B40" t="s">
-        <v>22</v>
-      </c>
-      <c r="C40" t="s">
-        <v>33</v>
-      </c>
-      <c r="D40" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40">
-        <v>213</v>
-      </c>
-      <c r="F40" t="s">
-        <v>10</v>
-      </c>
-      <c r="G40" t="s">
-        <v>11</v>
-      </c>
-      <c r="H40">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="2">
-        <v>40604</v>
-      </c>
-      <c r="B41" t="s">
-        <v>28</v>
-      </c>
-      <c r="C41" t="s">
-        <v>33</v>
-      </c>
-      <c r="D41" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41">
-        <v>213</v>
-      </c>
-      <c r="F41" t="s">
-        <v>10</v>
-      </c>
-      <c r="G41" t="s">
-        <v>11</v>
-      </c>
-      <c r="H41">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="2">
-        <v>40604</v>
-      </c>
-      <c r="B42" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" t="s">
-        <v>33</v>
-      </c>
-      <c r="D42" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42">
-        <v>213</v>
-      </c>
-      <c r="F42" t="s">
-        <v>10</v>
-      </c>
-      <c r="G42" t="s">
-        <v>11</v>
-      </c>
-      <c r="H42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="2">
-        <v>40604</v>
-      </c>
-      <c r="B43" t="s">
-        <v>35</v>
-      </c>
-      <c r="C43" t="s">
-        <v>33</v>
-      </c>
-      <c r="D43" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43">
-        <v>213</v>
-      </c>
-      <c r="F43" t="s">
-        <v>10</v>
-      </c>
-      <c r="G43" t="s">
-        <v>11</v>
-      </c>
-      <c r="H43">
-        <v>3</v>
-      </c>
-      <c r="I43" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="2">
-        <v>40604</v>
-      </c>
-      <c r="B44" t="s">
-        <v>35</v>
-      </c>
-      <c r="C44" t="s">
-        <v>33</v>
-      </c>
-      <c r="D44" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44">
-        <v>85</v>
-      </c>
-      <c r="F44" t="s">
-        <v>10</v>
-      </c>
-      <c r="G44" t="s">
-        <v>20</v>
-      </c>
-      <c r="H44">
-        <v>4.5</v>
-      </c>
-      <c r="I44" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="2">
-        <v>40602</v>
-      </c>
-      <c r="B45" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" t="s">
-        <v>9</v>
-      </c>
-      <c r="E45">
-        <v>205</v>
-      </c>
-      <c r="F45" t="s">
-        <v>10</v>
-      </c>
-      <c r="G45" t="s">
-        <v>43</v>
-      </c>
-      <c r="H45">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="2">
-        <v>40602</v>
-      </c>
-      <c r="B46" t="s">
-        <v>35</v>
-      </c>
-      <c r="C46" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" t="s">
-        <v>9</v>
-      </c>
-      <c r="E46">
-        <v>205</v>
-      </c>
-      <c r="F46" t="s">
-        <v>10</v>
-      </c>
-      <c r="G46" t="s">
-        <v>43</v>
-      </c>
-      <c r="H46">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="2">
-        <v>40602</v>
-      </c>
-      <c r="B47" t="s">
-        <v>22</v>
-      </c>
-      <c r="C47" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47">
-        <v>205</v>
-      </c>
-      <c r="F47" t="s">
-        <v>10</v>
-      </c>
-      <c r="G47" t="s">
-        <v>43</v>
-      </c>
-      <c r="H47">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="2">
-        <v>40602</v>
-      </c>
-      <c r="B48" t="s">
-        <v>17</v>
-      </c>
-      <c r="C48" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48">
-        <v>205</v>
-      </c>
-      <c r="F48" t="s">
-        <v>10</v>
-      </c>
-      <c r="G48" t="s">
-        <v>43</v>
-      </c>
-      <c r="H48">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="2">
-        <v>40602</v>
-      </c>
-      <c r="B49" t="s">
-        <v>28</v>
-      </c>
-      <c r="C49" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" t="s">
-        <v>9</v>
-      </c>
-      <c r="E49">
-        <v>205</v>
-      </c>
-      <c r="F49" t="s">
-        <v>10</v>
-      </c>
-      <c r="G49" t="s">
-        <v>43</v>
-      </c>
-      <c r="H49">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="2">
-        <v>40598</v>
-      </c>
-      <c r="B50" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50">
-        <v>78</v>
-      </c>
-      <c r="F50" t="s">
-        <v>10</v>
-      </c>
-      <c r="G50" t="s">
-        <v>15</v>
-      </c>
-      <c r="H50">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="2">
-        <v>40598</v>
-      </c>
-      <c r="B51" t="s">
-        <v>17</v>
-      </c>
-      <c r="C51" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" t="s">
-        <v>9</v>
-      </c>
-      <c r="E51">
-        <v>78</v>
-      </c>
-      <c r="F51" t="s">
-        <v>10</v>
-      </c>
-      <c r="G51" t="s">
-        <v>15</v>
-      </c>
-      <c r="H51">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="2">
-        <v>40598</v>
-      </c>
-      <c r="B52" t="s">
-        <v>22</v>
-      </c>
-      <c r="C52" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52">
-        <v>78</v>
-      </c>
-      <c r="F52" t="s">
-        <v>10</v>
-      </c>
-      <c r="G52" t="s">
-        <v>15</v>
-      </c>
-      <c r="H52">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="2">
-        <v>40598</v>
-      </c>
-      <c r="B53" t="s">
-        <v>35</v>
-      </c>
-      <c r="C53" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53" t="s">
-        <v>9</v>
-      </c>
-      <c r="E53">
-        <v>78</v>
-      </c>
-      <c r="F53" t="s">
-        <v>10</v>
-      </c>
-      <c r="G53" t="s">
-        <v>15</v>
-      </c>
-      <c r="H53">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="2">
-        <v>40598</v>
-      </c>
-      <c r="B54" t="s">
-        <v>28</v>
-      </c>
-      <c r="C54" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" t="s">
-        <v>9</v>
-      </c>
-      <c r="E54">
-        <v>78</v>
-      </c>
-      <c r="F54" t="s">
-        <v>10</v>
-      </c>
-      <c r="G54" t="s">
-        <v>15</v>
-      </c>
-      <c r="H54">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="2">
-        <v>40595</v>
-      </c>
-      <c r="B55" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" t="s">
-        <v>33</v>
-      </c>
-      <c r="D55" t="s">
-        <v>9</v>
-      </c>
-      <c r="E55">
-        <v>81</v>
-      </c>
-      <c r="F55" t="s">
-        <v>10</v>
-      </c>
-      <c r="G55" t="s">
-        <v>16</v>
-      </c>
-      <c r="H55">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/doc/01_Projektplan/zeiterfassung.xlsx
+++ b/doc/01_Projektplan/zeiterfassung.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="120" windowWidth="10410" windowHeight="7335" activeTab="6"/>
@@ -21,7 +21,7 @@
     <definedName name="zeiterfassung.tickets" localSheetId="1">Tickets!$A$1:$R$133</definedName>
     <definedName name="zeiterfassung.timelog" localSheetId="0">Timelog!$A$1:$I$61</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -582,8 +582,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -648,700 +648,32 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="de-CH"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-CH"/>
-              <a:t>Stunden/Tag</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:areaChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'h pro Tag'!$C$2:$C$100</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="99"/>
-                <c:pt idx="0">
-                  <c:v>40598</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>40599</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40601</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40602</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>40603</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40604</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40605</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>40606</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>40607</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>40608</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>40609</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>40610</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>40611</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>40612</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>40613</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>40614</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>40615</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>40616</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>40617</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>40618</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>40619</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>40620</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>40621</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>40622</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>40623</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>40624</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>40625</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>40626</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>40627</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>40628</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>40629</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>40630</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>40631</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>40632</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>40633</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>40634</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>40635</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>40636</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>40637</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>40638</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>40639</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>40640</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>40641</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>40642</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>40643</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>40644</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>40645</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>40646</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>40647</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>40648</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>40649</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>40650</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>40651</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>40652</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>40653</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>40654</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>40655</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>40656</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>40657</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>40658</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>40659</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>40660</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>40661</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>40662</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>40663</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>40664</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>40665</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>40666</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>40667</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>40668</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>40669</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>40670</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>40671</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>40672</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>40673</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>40674</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>40675</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>40676</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>40677</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>40678</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>40679</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>40680</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>40681</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>40682</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>40683</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>40684</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>40685</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>40686</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>40687</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>40688</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>40689</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>40690</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>40691</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>40692</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>40693</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>40694</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>40695</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>40696</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'h pro Tag'!$D$2:$D$100</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="99"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.75</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>26.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>13.25</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>40.75</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="56490240"/>
-        <c:axId val="56373248"/>
-      </c:areaChart>
-      <c:dateAx>
-        <c:axId val="56490240"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56373248"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-      </c:dateAx>
-      <c:valAx>
-        <c:axId val="56373248"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56490240"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-CH"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1360,11 +692,14 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1430,15 +765,25 @@
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="56971264"/>
-        <c:axId val="56973184"/>
+        <c:smooth val="0"/>
+        <c:axId val="106856960"/>
+        <c:axId val="76168512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="56971264"/>
+        <c:axId val="106856960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1457,20 +802,25 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56973184"/>
+        <c:crossAx val="76168512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="56973184"/>
+        <c:axId val="76168512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1490,15 +840,20 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56971264"/>
+        <c:crossAx val="106856960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1508,10 +863,19 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="de-CH"/>
-  <c:style val="3"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1534,7 +898,9 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -1590,15 +956,26 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1608,9 +985,19 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="de-CH"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1629,18 +1016,22 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>Geplant</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'h pro Ticket'!$D$2:$D$230</c:f>
@@ -1767,6 +1158,7 @@
           <c:tx>
             <c:v>Gebraucht</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'h pro Ticket'!$D$2:$D$230</c:f>
@@ -1887,16 +1279,28 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="412196864"/>
-        <c:axId val="412198784"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="107010560"/>
+        <c:axId val="110758144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="412196864"/>
+        <c:axId val="107010560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr rot="-5400000" vert="horz"/>
@@ -1908,22 +1312,26 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="412198784"/>
+        <c:crossAx val="110758144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="412198784"/>
+        <c:axId val="110758144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="412196864"/>
+        <c:crossAx val="107010560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1931,8 +1339,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1942,42 +1353,730 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-CH"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-CH"/>
+              <a:t>Stunden/Tag</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.4069188245256919E-2"/>
+          <c:y val="9.6621579187477408E-2"/>
+          <c:w val="0.94399339361136969"/>
+          <c:h val="0.71164607810028258"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:areaChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'h pro Tag'!$C$2:$C$100</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>40598</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40601</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40602</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40603</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40604</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40605</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40606</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40607</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40608</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40609</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40610</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40611</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40612</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40613</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40614</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40615</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40616</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>40617</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40618</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>40619</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40620</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>40621</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40622</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40623</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>40624</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>40625</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>40626</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>40627</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>40628</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>40629</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>40630</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40631</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>40632</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40633</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>40634</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>40635</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40636</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40637</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40638</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>40639</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>40640</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>40641</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>40642</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>40643</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>40644</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>40645</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>40646</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>40647</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>40648</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>40649</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>40650</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>40651</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>40652</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>40653</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>40654</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>40655</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>40656</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>40657</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>40658</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>40659</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>40660</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>40661</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>40662</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>40663</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>40664</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>40665</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>40666</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>40667</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>40668</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>40669</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>40670</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>40671</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>40672</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>40673</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>40674</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>40675</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>40676</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>40677</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>40678</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>40679</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>40680</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>40681</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>40682</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>40683</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>40684</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>40685</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>40686</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>40687</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>40688</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>40689</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>40690</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>40691</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>40692</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>40693</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>40694</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>40695</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>40696</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'h pro Tag'!$D$2:$D$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="40281600"/>
+        <c:axId val="56760512"/>
+      </c:areaChart>
+      <c:dateAx>
+        <c:axId val="40281600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="56760512"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="56760512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="40281600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2069,6 +2168,38 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2085,9 +2216,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2125,7 +2256,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2159,6 +2290,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2193,9 +2325,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2368,14 +2501,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
@@ -2387,7 +2520,7 @@
     <col min="9" max="9" width="53.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>40610</v>
       </c>
@@ -2413,7 +2546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>40610</v>
       </c>
@@ -2442,7 +2575,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>40610</v>
       </c>
@@ -2468,7 +2601,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>40610</v>
       </c>
@@ -2494,7 +2627,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>40610</v>
       </c>
@@ -2520,7 +2653,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>40610</v>
       </c>
@@ -2546,7 +2679,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>40610</v>
       </c>
@@ -2572,7 +2705,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>40610</v>
       </c>
@@ -2598,7 +2731,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>40609</v>
       </c>
@@ -2624,7 +2757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>40609</v>
       </c>
@@ -2650,7 +2783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>40609</v>
       </c>
@@ -2676,7 +2809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>40609</v>
       </c>
@@ -2702,7 +2835,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>40609</v>
       </c>
@@ -2728,7 +2861,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>40609</v>
       </c>
@@ -2757,7 +2890,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>40609</v>
       </c>
@@ -2783,7 +2916,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>40609</v>
       </c>
@@ -2809,7 +2942,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>40609</v>
       </c>
@@ -2835,7 +2968,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>40609</v>
       </c>
@@ -2861,7 +2994,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>40609</v>
       </c>
@@ -2887,7 +3020,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>40609</v>
       </c>
@@ -2913,7 +3046,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>40609</v>
       </c>
@@ -2939,7 +3072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>40609</v>
       </c>
@@ -2965,7 +3098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>40609</v>
       </c>
@@ -2994,7 +3127,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>40609</v>
       </c>
@@ -3020,7 +3153,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>40609</v>
       </c>
@@ -3046,7 +3179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>40609</v>
       </c>
@@ -3072,7 +3205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>40609</v>
       </c>
@@ -3101,7 +3234,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>40608</v>
       </c>
@@ -3127,7 +3260,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>40608</v>
       </c>
@@ -3153,7 +3286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>40606</v>
       </c>
@@ -3179,7 +3312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>40606</v>
       </c>
@@ -3208,7 +3341,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>40606</v>
       </c>
@@ -3234,7 +3367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>40606</v>
       </c>
@@ -3260,7 +3393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>40606</v>
       </c>
@@ -3289,7 +3422,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>40606</v>
       </c>
@@ -3315,7 +3448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>40606</v>
       </c>
@@ -3344,7 +3477,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>40606</v>
       </c>
@@ -3370,7 +3503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>40606</v>
       </c>
@@ -3396,7 +3529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>40605</v>
       </c>
@@ -3422,7 +3555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>40605</v>
       </c>
@@ -3448,7 +3581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40605</v>
       </c>
@@ -3474,7 +3607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40605</v>
       </c>
@@ -3500,7 +3633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>40605</v>
       </c>
@@ -3526,7 +3659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>40605</v>
       </c>
@@ -3552,7 +3685,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>40604</v>
       </c>
@@ -3578,7 +3711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>40604</v>
       </c>
@@ -3604,7 +3737,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>40604</v>
       </c>
@@ -3630,7 +3763,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>40604</v>
       </c>
@@ -3656,7 +3789,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>40604</v>
       </c>
@@ -3685,7 +3818,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>40604</v>
       </c>
@@ -3714,7 +3847,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>40602</v>
       </c>
@@ -3740,7 +3873,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>40602</v>
       </c>
@@ -3766,7 +3899,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>40602</v>
       </c>
@@ -3792,7 +3925,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>40602</v>
       </c>
@@ -3818,7 +3951,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>40602</v>
       </c>
@@ -3844,7 +3977,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>40598</v>
       </c>
@@ -3870,7 +4003,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>40598</v>
       </c>
@@ -3896,7 +4029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>40598</v>
       </c>
@@ -3922,7 +4055,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>40598</v>
       </c>
@@ -3948,7 +4081,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>40598</v>
       </c>
@@ -3974,7 +4107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>40595</v>
       </c>
@@ -4006,14 +4139,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A71" sqref="A71:XFD71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="46" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="66.7109375" bestFit="1" customWidth="1"/>
@@ -4033,7 +4166,7 @@
     <col min="18" max="18" width="73" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>222</v>
       </c>
@@ -4087,7 +4220,7 @@
       </c>
       <c r="R1" s="3"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>221</v>
       </c>
@@ -4138,7 +4271,7 @@
       </c>
       <c r="R2" s="3"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>220</v>
       </c>
@@ -4189,7 +4322,7 @@
       </c>
       <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>219</v>
       </c>
@@ -4240,7 +4373,7 @@
       </c>
       <c r="R4" s="3"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>218</v>
       </c>
@@ -4291,7 +4424,7 @@
       </c>
       <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>217</v>
       </c>
@@ -4342,7 +4475,7 @@
       </c>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>216</v>
       </c>
@@ -4393,7 +4526,7 @@
       </c>
       <c r="R7" s="3"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>215</v>
       </c>
@@ -4444,7 +4577,7 @@
       </c>
       <c r="R8" s="3"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>214</v>
       </c>
@@ -4495,7 +4628,7 @@
       </c>
       <c r="R9" s="3"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>213</v>
       </c>
@@ -4549,7 +4682,7 @@
       </c>
       <c r="R10" s="3"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>212</v>
       </c>
@@ -4602,7 +4735,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>211</v>
       </c>
@@ -4655,7 +4788,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>210</v>
       </c>
@@ -4706,7 +4839,7 @@
       </c>
       <c r="R13" s="3"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>209</v>
       </c>
@@ -4757,7 +4890,7 @@
       </c>
       <c r="R14" s="3"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>208</v>
       </c>
@@ -4808,7 +4941,7 @@
       </c>
       <c r="R15" s="3"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>207</v>
       </c>
@@ -4859,7 +4992,7 @@
       </c>
       <c r="R16" s="3"/>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>206</v>
       </c>
@@ -4912,7 +5045,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>205</v>
       </c>
@@ -4966,7 +5099,7 @@
       </c>
       <c r="R18" s="3"/>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>204</v>
       </c>
@@ -5017,7 +5150,7 @@
       </c>
       <c r="R19" s="3"/>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>203</v>
       </c>
@@ -5071,7 +5204,7 @@
       </c>
       <c r="R20" s="3"/>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>202</v>
       </c>
@@ -5125,7 +5258,7 @@
       </c>
       <c r="R21" s="3"/>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>201</v>
       </c>
@@ -5179,7 +5312,7 @@
       </c>
       <c r="R22" s="3"/>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>200</v>
       </c>
@@ -5233,7 +5366,7 @@
       </c>
       <c r="R23" s="3"/>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>199</v>
       </c>
@@ -5287,7 +5420,7 @@
       </c>
       <c r="R24" s="3"/>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>198</v>
       </c>
@@ -5341,7 +5474,7 @@
       </c>
       <c r="R25" s="3"/>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>197</v>
       </c>
@@ -5395,7 +5528,7 @@
       </c>
       <c r="R26" s="3"/>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>196</v>
       </c>
@@ -5449,7 +5582,7 @@
       </c>
       <c r="R27" s="3"/>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>195</v>
       </c>
@@ -5503,7 +5636,7 @@
       </c>
       <c r="R28" s="3"/>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>194</v>
       </c>
@@ -5557,7 +5690,7 @@
       </c>
       <c r="R29" s="3"/>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>193</v>
       </c>
@@ -5611,7 +5744,7 @@
       </c>
       <c r="R30" s="3"/>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>192</v>
       </c>
@@ -5665,7 +5798,7 @@
       </c>
       <c r="R31" s="3"/>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>191</v>
       </c>
@@ -5719,7 +5852,7 @@
       </c>
       <c r="R32" s="3"/>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>190</v>
       </c>
@@ -5773,7 +5906,7 @@
       </c>
       <c r="R33" s="3"/>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>189</v>
       </c>
@@ -5827,7 +5960,7 @@
       </c>
       <c r="R34" s="3"/>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>188</v>
       </c>
@@ -5881,7 +6014,7 @@
       </c>
       <c r="R35" s="3"/>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>187</v>
       </c>
@@ -5935,7 +6068,7 @@
       </c>
       <c r="R36" s="3"/>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>186</v>
       </c>
@@ -5989,7 +6122,7 @@
       </c>
       <c r="R37" s="3"/>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>185</v>
       </c>
@@ -6043,7 +6176,7 @@
       </c>
       <c r="R38" s="3"/>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>184</v>
       </c>
@@ -6097,7 +6230,7 @@
       </c>
       <c r="R39" s="3"/>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>183</v>
       </c>
@@ -6151,7 +6284,7 @@
       </c>
       <c r="R40" s="3"/>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>182</v>
       </c>
@@ -6205,7 +6338,7 @@
       </c>
       <c r="R41" s="3"/>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>181</v>
       </c>
@@ -6259,7 +6392,7 @@
       </c>
       <c r="R42" s="3"/>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>179</v>
       </c>
@@ -6313,7 +6446,7 @@
       </c>
       <c r="R43" s="3"/>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>178</v>
       </c>
@@ -6364,7 +6497,7 @@
       </c>
       <c r="R44" s="3"/>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>177</v>
       </c>
@@ -6415,7 +6548,7 @@
       </c>
       <c r="R45" s="3"/>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>176</v>
       </c>
@@ -6466,7 +6599,7 @@
       </c>
       <c r="R46" s="3"/>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>175</v>
       </c>
@@ -6517,7 +6650,7 @@
       </c>
       <c r="R47" s="3"/>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>174</v>
       </c>
@@ -6571,7 +6704,7 @@
       </c>
       <c r="R48" s="3"/>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>173</v>
       </c>
@@ -6622,7 +6755,7 @@
       </c>
       <c r="R49" s="3"/>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>172</v>
       </c>
@@ -6673,7 +6806,7 @@
       </c>
       <c r="R50" s="3"/>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>171</v>
       </c>
@@ -6724,7 +6857,7 @@
       </c>
       <c r="R51" s="3"/>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>170</v>
       </c>
@@ -6772,7 +6905,7 @@
       </c>
       <c r="R52" s="3"/>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>169</v>
       </c>
@@ -6820,7 +6953,7 @@
       </c>
       <c r="R53" s="3"/>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>168</v>
       </c>
@@ -6874,7 +7007,7 @@
       </c>
       <c r="R54" s="3"/>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>167</v>
       </c>
@@ -6925,7 +7058,7 @@
       </c>
       <c r="R55" s="3"/>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>166</v>
       </c>
@@ -6976,7 +7109,7 @@
       </c>
       <c r="R56" s="3"/>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>165</v>
       </c>
@@ -7030,7 +7163,7 @@
       </c>
       <c r="R57" s="3"/>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>164</v>
       </c>
@@ -7084,7 +7217,7 @@
       </c>
       <c r="R58" s="3"/>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>163</v>
       </c>
@@ -7135,7 +7268,7 @@
       </c>
       <c r="R59" s="3"/>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>162</v>
       </c>
@@ -7186,7 +7319,7 @@
       </c>
       <c r="R60" s="3"/>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>161</v>
       </c>
@@ -7234,7 +7367,7 @@
       </c>
       <c r="R61" s="3"/>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>159</v>
       </c>
@@ -7288,7 +7421,7 @@
       </c>
       <c r="R62" s="3"/>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>158</v>
       </c>
@@ -7339,7 +7472,7 @@
       </c>
       <c r="R63" s="3"/>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>157</v>
       </c>
@@ -7390,7 +7523,7 @@
       </c>
       <c r="R64" s="3"/>
     </row>
-    <row r="65" spans="1:18">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>156</v>
       </c>
@@ -7438,7 +7571,7 @@
       </c>
       <c r="R65" s="3"/>
     </row>
-    <row r="66" spans="1:18">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>155</v>
       </c>
@@ -7492,7 +7625,7 @@
       </c>
       <c r="R66" s="3"/>
     </row>
-    <row r="67" spans="1:18">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>154</v>
       </c>
@@ -7548,7 +7681,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="68" spans="1:18">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>153</v>
       </c>
@@ -7602,7 +7735,7 @@
       </c>
       <c r="R68" s="3"/>
     </row>
-    <row r="69" spans="1:18">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>152</v>
       </c>
@@ -7656,7 +7789,7 @@
       </c>
       <c r="R69" s="3"/>
     </row>
-    <row r="70" spans="1:18">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>151</v>
       </c>
@@ -7709,7 +7842,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="71" spans="1:18">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>150</v>
       </c>
@@ -7760,7 +7893,7 @@
       </c>
       <c r="R71" s="3"/>
     </row>
-    <row r="72" spans="1:18">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>149</v>
       </c>
@@ -7811,7 +7944,7 @@
       </c>
       <c r="R72" s="3"/>
     </row>
-    <row r="73" spans="1:18">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>148</v>
       </c>
@@ -7862,7 +7995,7 @@
       </c>
       <c r="R73" s="3"/>
     </row>
-    <row r="74" spans="1:18">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>147</v>
       </c>
@@ -7913,7 +8046,7 @@
       </c>
       <c r="R74" s="3"/>
     </row>
-    <row r="75" spans="1:18">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>146</v>
       </c>
@@ -7964,7 +8097,7 @@
       </c>
       <c r="R75" s="3"/>
     </row>
-    <row r="76" spans="1:18">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>145</v>
       </c>
@@ -8015,7 +8148,7 @@
       </c>
       <c r="R76" s="3"/>
     </row>
-    <row r="77" spans="1:18">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>144</v>
       </c>
@@ -8066,7 +8199,7 @@
       </c>
       <c r="R77" s="3"/>
     </row>
-    <row r="78" spans="1:18">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>143</v>
       </c>
@@ -8119,7 +8252,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="79" spans="1:18">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>141</v>
       </c>
@@ -8170,7 +8303,7 @@
       </c>
       <c r="R79" s="3"/>
     </row>
-    <row r="80" spans="1:18">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>140</v>
       </c>
@@ -8221,7 +8354,7 @@
       </c>
       <c r="R80" s="3"/>
     </row>
-    <row r="81" spans="1:18">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>139</v>
       </c>
@@ -8277,7 +8410,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="82" spans="1:18">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>137</v>
       </c>
@@ -8331,7 +8464,7 @@
       </c>
       <c r="R82" s="3"/>
     </row>
-    <row r="83" spans="1:18">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>136</v>
       </c>
@@ -8385,7 +8518,7 @@
       </c>
       <c r="R83" s="3"/>
     </row>
-    <row r="84" spans="1:18">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>135</v>
       </c>
@@ -8433,7 +8566,7 @@
       </c>
       <c r="R84" s="3"/>
     </row>
-    <row r="85" spans="1:18">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>134</v>
       </c>
@@ -8484,7 +8617,7 @@
       </c>
       <c r="R85" s="3"/>
     </row>
-    <row r="86" spans="1:18">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>133</v>
       </c>
@@ -8535,7 +8668,7 @@
       </c>
       <c r="R86" s="3"/>
     </row>
-    <row r="87" spans="1:18">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>132</v>
       </c>
@@ -8586,7 +8719,7 @@
       </c>
       <c r="R87" s="3"/>
     </row>
-    <row r="88" spans="1:18">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>131</v>
       </c>
@@ -8637,7 +8770,7 @@
       </c>
       <c r="R88" s="3"/>
     </row>
-    <row r="89" spans="1:18">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>130</v>
       </c>
@@ -8688,7 +8821,7 @@
       </c>
       <c r="R89" s="3"/>
     </row>
-    <row r="90" spans="1:18">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>129</v>
       </c>
@@ -8739,7 +8872,7 @@
       </c>
       <c r="R90" s="3"/>
     </row>
-    <row r="91" spans="1:18">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>128</v>
       </c>
@@ -8790,7 +8923,7 @@
       </c>
       <c r="R91" s="3"/>
     </row>
-    <row r="92" spans="1:18">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>127</v>
       </c>
@@ -8841,7 +8974,7 @@
       </c>
       <c r="R92" s="3"/>
     </row>
-    <row r="93" spans="1:18">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>126</v>
       </c>
@@ -8892,7 +9025,7 @@
       </c>
       <c r="R93" s="3"/>
     </row>
-    <row r="94" spans="1:18">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>125</v>
       </c>
@@ -8941,7 +9074,7 @@
       </c>
       <c r="R94" s="3"/>
     </row>
-    <row r="95" spans="1:18">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>124</v>
       </c>
@@ -8994,7 +9127,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="96" spans="1:18">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>123</v>
       </c>
@@ -9048,7 +9181,7 @@
       </c>
       <c r="R96" s="3"/>
     </row>
-    <row r="97" spans="1:18">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>121</v>
       </c>
@@ -9102,7 +9235,7 @@
       </c>
       <c r="R97" s="3"/>
     </row>
-    <row r="98" spans="1:18">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>120</v>
       </c>
@@ -9153,7 +9286,7 @@
       </c>
       <c r="R98" s="3"/>
     </row>
-    <row r="99" spans="1:18">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>117</v>
       </c>
@@ -9207,7 +9340,7 @@
       </c>
       <c r="R99" s="3"/>
     </row>
-    <row r="100" spans="1:18">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>116</v>
       </c>
@@ -9261,7 +9394,7 @@
       </c>
       <c r="R100" s="3"/>
     </row>
-    <row r="101" spans="1:18">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>115</v>
       </c>
@@ -9315,7 +9448,7 @@
       </c>
       <c r="R101" s="3"/>
     </row>
-    <row r="102" spans="1:18">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>114</v>
       </c>
@@ -9369,7 +9502,7 @@
       </c>
       <c r="R102" s="3"/>
     </row>
-    <row r="103" spans="1:18">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>113</v>
       </c>
@@ -9423,7 +9556,7 @@
       </c>
       <c r="R103" s="3"/>
     </row>
-    <row r="104" spans="1:18">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>112</v>
       </c>
@@ -9477,7 +9610,7 @@
       </c>
       <c r="R104" s="3"/>
     </row>
-    <row r="105" spans="1:18">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>111</v>
       </c>
@@ -9531,7 +9664,7 @@
       </c>
       <c r="R105" s="3"/>
     </row>
-    <row r="106" spans="1:18">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>110</v>
       </c>
@@ -9585,7 +9718,7 @@
       </c>
       <c r="R106" s="3"/>
     </row>
-    <row r="107" spans="1:18">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>109</v>
       </c>
@@ -9639,7 +9772,7 @@
       </c>
       <c r="R107" s="3"/>
     </row>
-    <row r="108" spans="1:18">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>108</v>
       </c>
@@ -9693,7 +9826,7 @@
       </c>
       <c r="R108" s="3"/>
     </row>
-    <row r="109" spans="1:18">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>107</v>
       </c>
@@ -9749,7 +9882,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="110" spans="1:18">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>105</v>
       </c>
@@ -9803,7 +9936,7 @@
       </c>
       <c r="R110" s="3"/>
     </row>
-    <row r="111" spans="1:18">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>104</v>
       </c>
@@ -9856,7 +9989,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="112" spans="1:18">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>103</v>
       </c>
@@ -9907,7 +10040,7 @@
       </c>
       <c r="R112" s="3"/>
     </row>
-    <row r="113" spans="1:18">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>102</v>
       </c>
@@ -9961,7 +10094,7 @@
       </c>
       <c r="R113" s="3"/>
     </row>
-    <row r="114" spans="1:18" ht="18" customHeight="1">
+    <row r="114" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>101</v>
       </c>
@@ -10017,7 +10150,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="115" spans="1:18">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>99</v>
       </c>
@@ -10071,7 +10204,7 @@
       </c>
       <c r="R115" s="3"/>
     </row>
-    <row r="116" spans="1:18">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>97</v>
       </c>
@@ -10125,7 +10258,7 @@
       </c>
       <c r="R116" s="3"/>
     </row>
-    <row r="117" spans="1:18">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>95</v>
       </c>
@@ -10179,7 +10312,7 @@
       </c>
       <c r="R117" s="3"/>
     </row>
-    <row r="118" spans="1:18">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>94</v>
       </c>
@@ -10230,7 +10363,7 @@
       </c>
       <c r="R118" s="3"/>
     </row>
-    <row r="119" spans="1:18">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>93</v>
       </c>
@@ -10281,7 +10414,7 @@
       </c>
       <c r="R119" s="3"/>
     </row>
-    <row r="120" spans="1:18">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>92</v>
       </c>
@@ -10329,7 +10462,7 @@
       </c>
       <c r="R120" s="3"/>
     </row>
-    <row r="121" spans="1:18">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>91</v>
       </c>
@@ -10383,7 +10516,7 @@
       </c>
       <c r="R121" s="3"/>
     </row>
-    <row r="122" spans="1:18">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>89</v>
       </c>
@@ -10431,7 +10564,7 @@
       </c>
       <c r="R122" s="3"/>
     </row>
-    <row r="123" spans="1:18">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>88</v>
       </c>
@@ -10485,7 +10618,7 @@
       </c>
       <c r="R123" s="3"/>
     </row>
-    <row r="124" spans="1:18">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>87</v>
       </c>
@@ -10541,7 +10674,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="125" spans="1:18">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>86</v>
       </c>
@@ -10597,7 +10730,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="126" spans="1:18">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>85</v>
       </c>
@@ -10653,7 +10786,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="127" spans="1:18">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>84</v>
       </c>
@@ -10709,7 +10842,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="128" spans="1:18">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>83</v>
       </c>
@@ -10762,7 +10895,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="129" spans="1:18">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>82</v>
       </c>
@@ -10818,7 +10951,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="130" spans="1:18">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>81</v>
       </c>
@@ -10871,7 +11004,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="131" spans="1:18">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>80</v>
       </c>
@@ -10922,7 +11055,7 @@
       </c>
       <c r="R131" s="3"/>
     </row>
-    <row r="132" spans="1:18">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>79</v>
       </c>
@@ -10973,7 +11106,7 @@
       </c>
       <c r="R132" s="3"/>
     </row>
-    <row r="133" spans="1:18">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>78</v>
       </c>
@@ -11027,66 +11160,66 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="3" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
     </row>
   </sheetData>
@@ -11098,19 +11231,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -11119,7 +11252,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -11128,7 +11261,7 @@
         <v>28.25</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -11137,7 +11270,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -11146,7 +11279,7 @@
         <v>29.25</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -11163,14 +11296,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C2" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.85546875" style="4" bestFit="1" customWidth="1"/>
@@ -11182,7 +11315,7 @@
     <col min="9" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1">
+    <row r="1" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>37</v>
       </c>
@@ -11202,7 +11335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>4</v>
       </c>
@@ -11224,7 +11357,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>5</v>
       </c>
@@ -11246,7 +11379,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>6</v>
       </c>
@@ -11268,7 +11401,7 @@
         <v>46.25</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>7</v>
       </c>
@@ -11290,7 +11423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -11312,7 +11445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>2</v>
       </c>
@@ -11334,7 +11467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>3</v>
       </c>
@@ -11356,7 +11489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>4</v>
       </c>
@@ -11378,7 +11511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>5</v>
       </c>
@@ -11400,7 +11533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>6</v>
       </c>
@@ -11422,7 +11555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>7</v>
       </c>
@@ -11444,7 +11577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>1</v>
       </c>
@@ -11466,7 +11599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>2</v>
       </c>
@@ -11488,7 +11621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>3</v>
       </c>
@@ -11510,7 +11643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>4</v>
       </c>
@@ -11532,7 +11665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>5</v>
       </c>
@@ -11547,7 +11680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>6</v>
       </c>
@@ -11562,7 +11695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>7</v>
       </c>
@@ -11577,7 +11710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>1</v>
       </c>
@@ -11592,7 +11725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>2</v>
       </c>
@@ -11607,7 +11740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>3</v>
       </c>
@@ -11622,7 +11755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>4</v>
       </c>
@@ -11637,7 +11770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>5</v>
       </c>
@@ -11652,7 +11785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>6</v>
       </c>
@@ -11667,7 +11800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>7</v>
       </c>
@@ -11682,7 +11815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>1</v>
       </c>
@@ -11697,7 +11830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>2</v>
       </c>
@@ -11712,7 +11845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>3</v>
       </c>
@@ -11727,7 +11860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>4</v>
       </c>
@@ -11742,7 +11875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>5</v>
       </c>
@@ -11757,7 +11890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>6</v>
       </c>
@@ -11772,7 +11905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>7</v>
       </c>
@@ -11787,7 +11920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>1</v>
       </c>
@@ -11802,7 +11935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>2</v>
       </c>
@@ -11817,7 +11950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>3</v>
       </c>
@@ -11832,7 +11965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>4</v>
       </c>
@@ -11847,7 +11980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>5</v>
       </c>
@@ -11862,7 +11995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>6</v>
       </c>
@@ -11877,7 +12010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>7</v>
       </c>
@@ -11892,7 +12025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>1</v>
       </c>
@@ -11907,7 +12040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>2</v>
       </c>
@@ -11922,7 +12055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>3</v>
       </c>
@@ -11937,7 +12070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>4</v>
       </c>
@@ -11952,7 +12085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>5</v>
       </c>
@@ -11967,7 +12100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>6</v>
       </c>
@@ -11982,7 +12115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>7</v>
       </c>
@@ -11997,7 +12130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>1</v>
       </c>
@@ -12012,7 +12145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>2</v>
       </c>
@@ -12027,7 +12160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>3</v>
       </c>
@@ -12042,7 +12175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>4</v>
       </c>
@@ -12057,7 +12190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>5</v>
       </c>
@@ -12072,7 +12205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>6</v>
       </c>
@@ -12087,7 +12220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>7</v>
       </c>
@@ -12102,7 +12235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>1</v>
       </c>
@@ -12117,7 +12250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>2</v>
       </c>
@@ -12132,7 +12265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>3</v>
       </c>
@@ -12147,7 +12280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>4</v>
       </c>
@@ -12162,7 +12295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>5</v>
       </c>
@@ -12177,7 +12310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>6</v>
       </c>
@@ -12192,7 +12325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>7</v>
       </c>
@@ -12207,7 +12340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>1</v>
       </c>
@@ -12222,7 +12355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>2</v>
       </c>
@@ -12237,7 +12370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>3</v>
       </c>
@@ -12252,7 +12385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>4</v>
       </c>
@@ -12267,7 +12400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>5</v>
       </c>
@@ -12282,7 +12415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>6</v>
       </c>
@@ -12297,7 +12430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>7</v>
       </c>
@@ -12312,7 +12445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>1</v>
       </c>
@@ -12327,7 +12460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>2</v>
       </c>
@@ -12342,7 +12475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>3</v>
       </c>
@@ -12357,7 +12490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>4</v>
       </c>
@@ -12372,7 +12505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>5</v>
       </c>
@@ -12387,7 +12520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>6</v>
       </c>
@@ -12402,7 +12535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>7</v>
       </c>
@@ -12417,7 +12550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>1</v>
       </c>
@@ -12432,7 +12565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>2</v>
       </c>
@@ -12447,7 +12580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>3</v>
       </c>
@@ -12462,7 +12595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>4</v>
       </c>
@@ -12477,7 +12610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>5</v>
       </c>
@@ -12492,7 +12625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>6</v>
       </c>
@@ -12507,7 +12640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>7</v>
       </c>
@@ -12522,7 +12655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>1</v>
       </c>
@@ -12537,7 +12670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>2</v>
       </c>
@@ -12552,7 +12685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>3</v>
       </c>
@@ -12567,7 +12700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>4</v>
       </c>
@@ -12582,7 +12715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>5</v>
       </c>
@@ -12597,7 +12730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>6</v>
       </c>
@@ -12612,7 +12745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>7</v>
       </c>
@@ -12627,7 +12760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>1</v>
       </c>
@@ -12642,7 +12775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>2</v>
       </c>
@@ -12657,7 +12790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>3</v>
       </c>
@@ -12672,7 +12805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>4</v>
       </c>
@@ -12687,7 +12820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>5</v>
       </c>
@@ -12702,7 +12835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>6</v>
       </c>
@@ -12717,7 +12850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>7</v>
       </c>
@@ -12732,7 +12865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>1</v>
       </c>
@@ -12747,7 +12880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>2</v>
       </c>
@@ -12762,7 +12895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>3</v>
       </c>
@@ -12777,7 +12910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>4</v>
       </c>
@@ -12795,12 +12928,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A2:D221"/>
   <sheetViews>
@@ -12808,12 +12940,12 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>Tickets!A10</f>
         <v>213</v>
@@ -12831,7 +12963,7 @@
         <v>#213: Projektplan erstellen</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>Tickets!A2</f>
         <v>221</v>
@@ -12849,7 +12981,7 @@
         <v>#221: Projektplan aktualisieren</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <f>Tickets!A3</f>
         <v>220</v>
@@ -12867,7 +12999,7 @@
         <v>#220: Projektplan aktualisieren</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <f>Tickets!A4</f>
         <v>219</v>
@@ -12885,7 +13017,7 @@
         <v>#219: Projektplan aktualisieren</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <f>Tickets!A5</f>
         <v>218</v>
@@ -12903,7 +13035,7 @@
         <v>#218: Projektplan aktualisieren</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <f>Tickets!A6</f>
         <v>217</v>
@@ -12921,7 +13053,7 @@
         <v>#217: Risikomanagement</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <f>Tickets!A7</f>
         <v>216</v>
@@ -12939,7 +13071,7 @@
         <v>#216: Risikomanagement</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <f>Tickets!A8</f>
         <v>215</v>
@@ -12957,7 +13089,7 @@
         <v>#215: Risikomanagement</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <f>Tickets!A9</f>
         <v>214</v>
@@ -12975,7 +13107,7 @@
         <v>#214: Risikomanagement</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <f>Tickets!A133</f>
         <v>78</v>
@@ -12993,7 +13125,7 @@
         <v>#78: Projektantrag erstellen</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <f>Tickets!A11</f>
         <v>212</v>
@@ -13011,7 +13143,7 @@
         <v>#212: Reserve Risiko R06</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <f>Tickets!A12</f>
         <v>211</v>
@@ -13029,7 +13161,7 @@
         <v>#211: Reserve Risiko R04, R05</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <f>Tickets!A13</f>
         <v>210</v>
@@ -13047,7 +13179,7 @@
         <v>#210: Android Tutorials / Lektüren</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <f>Tickets!A14</f>
         <v>209</v>
@@ -13065,7 +13197,7 @@
         <v>#209: Gemeinsames Abendessen</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <f>Tickets!A15</f>
         <v>208</v>
@@ -13083,7 +13215,7 @@
         <v>#208: Gemeinsames Abendessen</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <f>Tickets!A16</f>
         <v>207</v>
@@ -13101,7 +13233,7 @@
         <v>#207: Gemeinsames Abendessen</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <f>Tickets!A17</f>
         <v>206</v>
@@ -13119,7 +13251,7 @@
         <v>#206: Reserve Risiko R01, R02, R03</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <f>Tickets!A129</f>
         <v>82</v>
@@ -13137,7 +13269,7 @@
         <v>#82: Sitzung 03.03.11</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <f>Tickets!A19</f>
         <v>204</v>
@@ -13155,7 +13287,7 @@
         <v>#204: Präsentation durchführen</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <f>Tickets!A20</f>
         <v>203</v>
@@ -13173,7 +13305,7 @@
         <v>#203: Sitzung 30.05.11</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <f>Tickets!A21</f>
         <v>202</v>
@@ -13191,7 +13323,7 @@
         <v>#202: Sitzung 23.05.11</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <f>Tickets!A22</f>
         <v>201</v>
@@ -13209,7 +13341,7 @@
         <v>#201: Sitzung 26.05.11</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <f>Tickets!A23</f>
         <v>200</v>
@@ -13227,7 +13359,7 @@
         <v>#200: Sitzung 16.05.11</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <f>Tickets!A24</f>
         <v>199</v>
@@ -13245,7 +13377,7 @@
         <v>#199: Sitzung 19.05.11</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <f>Tickets!A25</f>
         <v>198</v>
@@ -13263,7 +13395,7 @@
         <v>#198: Sitzung 09.05.11</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <f>Tickets!A26</f>
         <v>197</v>
@@ -13281,7 +13413,7 @@
         <v>#197: Sitzung 12.05.11</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <f>Tickets!A27</f>
         <v>196</v>
@@ -13299,7 +13431,7 @@
         <v>#196: Sitzung 02.05.11</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <f>Tickets!A28</f>
         <v>195</v>
@@ -13317,7 +13449,7 @@
         <v>#195: Sitzung 05.05.11</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1">
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <f>Tickets!A29</f>
         <v>194</v>
@@ -13335,7 +13467,7 @@
         <v>#194: Sitzung 18.04.11</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1">
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <f>Tickets!A30</f>
         <v>193</v>
@@ -13353,7 +13485,7 @@
         <v>#193: Sitzung 28.04.11</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1">
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <f>Tickets!A31</f>
         <v>192</v>
@@ -13371,7 +13503,7 @@
         <v>#192: Sitzung 21.04.11</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <f>Tickets!A32</f>
         <v>191</v>
@@ -13389,7 +13521,7 @@
         <v>#191: Sitzung 14.04.11</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <f>Tickets!A33</f>
         <v>190</v>
@@ -13407,7 +13539,7 @@
         <v>#190: Sitzung 11.04.11</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <f>Tickets!A34</f>
         <v>189</v>
@@ -13425,7 +13557,7 @@
         <v>#189: Sitzung 07.04.11</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <f>Tickets!A35</f>
         <v>188</v>
@@ -13443,7 +13575,7 @@
         <v>#188: Sitzung 04.04.11</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <f>Tickets!A36</f>
         <v>187</v>
@@ -13461,7 +13593,7 @@
         <v>#187: Sitzung 28.03.11</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <f>Tickets!A37</f>
         <v>186</v>
@@ -13479,7 +13611,7 @@
         <v>#186: Sitzung 31.03.11</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1">
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <f>Tickets!A38</f>
         <v>185</v>
@@ -13497,7 +13629,7 @@
         <v>#185: Sitzung 24.03.11</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1">
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <f>Tickets!A39</f>
         <v>184</v>
@@ -13515,7 +13647,7 @@
         <v>#184: Sitzung 17.03.11</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1">
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <f>Tickets!A40</f>
         <v>183</v>
@@ -13533,7 +13665,7 @@
         <v>#183: Sitzung 21.03.11</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <f>Tickets!A41</f>
         <v>182</v>
@@ -13551,7 +13683,7 @@
         <v>#182: Sitzung 14.03.11</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1">
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <f>Tickets!A42</f>
         <v>181</v>
@@ -13569,7 +13701,7 @@
         <v>#181: Sitzung 10.03.11</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <f>Tickets!A121</f>
         <v>91</v>
@@ -13587,7 +13719,7 @@
         <v>#91: Iterationsplanung und Arbeitspakete</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1">
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45">
         <f>Tickets!A44</f>
         <v>178</v>
@@ -13605,7 +13737,7 @@
         <v>#178: Test</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1">
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46">
         <f>Tickets!A45</f>
         <v>177</v>
@@ -13623,7 +13755,7 @@
         <v>#177: Review</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1">
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47">
         <f>Tickets!A46</f>
         <v>176</v>
@@ -13641,7 +13773,7 @@
         <v>#176: Release V 1.0 erstellen</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1">
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48">
         <f>Tickets!A47</f>
         <v>175</v>
@@ -13659,7 +13791,7 @@
         <v>#175: Release V 0.2 erstellen</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1">
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49">
         <f>Tickets!A48</f>
         <v>174</v>
@@ -13677,7 +13809,7 @@
         <v>#174: Review der Dokumentation der Architektur</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1">
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50">
         <f>Tickets!A49</f>
         <v>173</v>
@@ -13695,7 +13827,7 @@
         <v>#173: Dokumentation Architektur</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1">
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51">
         <f>Tickets!A50</f>
         <v>172</v>
@@ -13713,7 +13845,7 @@
         <v>#172: Review</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1">
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52">
         <f>Tickets!A51</f>
         <v>171</v>
@@ -13731,7 +13863,7 @@
         <v>#171: Tests</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1">
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53">
         <f>Tickets!A52</f>
         <v>170</v>
@@ -13749,7 +13881,7 @@
         <v>#170: Entwicklung RoR</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1">
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54">
         <f>Tickets!A53</f>
         <v>169</v>
@@ -13767,7 +13899,7 @@
         <v>#169: Entwicklung Android</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1">
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55">
         <f>Tickets!A54</f>
         <v>168</v>
@@ -13785,7 +13917,7 @@
         <v>#168: Release V 0.1 erstellen</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1">
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56">
         <f>Tickets!A55</f>
         <v>167</v>
@@ -13803,7 +13935,7 @@
         <v>#167: Anforderderungs Spezifikation</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1">
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57">
         <f>Tickets!A56</f>
         <v>166</v>
@@ -13821,7 +13953,7 @@
         <v>#166: Architektur grob dokumentieren</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1">
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58">
         <f>Tickets!A57</f>
         <v>165</v>
@@ -13839,7 +13971,7 @@
         <v>#165: Demo vorbereiten</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1">
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59">
         <f>Tickets!A58</f>
         <v>164</v>
@@ -13857,7 +13989,7 @@
         <v>#164: Entwurf Klassendiagramme</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1">
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60">
         <f>Tickets!A59</f>
         <v>163</v>
@@ -13875,7 +14007,7 @@
         <v>#163: Review</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1">
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61">
         <f>Tickets!A60</f>
         <v>162</v>
@@ -13893,7 +14025,7 @@
         <v>#162: Architekturprototyp</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1">
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62">
         <f>Tickets!A61</f>
         <v>161</v>
@@ -13911,7 +14043,7 @@
         <v>#161: Wireframes erstellen</v>
       </c>
     </row>
-    <row r="63" spans="1:4" hidden="1">
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63">
         <f>Tickets!A62</f>
         <v>159</v>
@@ -13929,7 +14061,7 @@
         <v>#159: Test</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1">
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64">
         <f>Tickets!A63</f>
         <v>158</v>
@@ -13947,7 +14079,7 @@
         <v>#158: Feinplanung Constructionphase</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1">
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65">
         <f>Tickets!A64</f>
         <v>157</v>
@@ -13965,7 +14097,7 @@
         <v>#157: Risikoanalyse nachführen und Hauptrisiken beseitigen</v>
       </c>
     </row>
-    <row r="66" spans="1:4" hidden="1">
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66">
         <f>Tickets!A65</f>
         <v>156</v>
@@ -13983,7 +14115,7 @@
         <v>#156: Entwicklungsumgebung einrichten</v>
       </c>
     </row>
-    <row r="67" spans="1:4" hidden="1">
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67">
         <f>Tickets!A66</f>
         <v>155</v>
@@ -14001,7 +14133,7 @@
         <v>#155: Klassenspezifikation</v>
       </c>
     </row>
-    <row r="68" spans="1:4" hidden="1">
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68">
         <f>Tickets!A67</f>
         <v>154</v>
@@ -14019,7 +14151,7 @@
         <v>#154: Nichtfunktionale Anforderungen</v>
       </c>
     </row>
-    <row r="69" spans="1:4" hidden="1">
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69">
         <f>Tickets!A68</f>
         <v>153</v>
@@ -14037,7 +14169,7 @@
         <v>#153: Review Domainanalyse</v>
       </c>
     </row>
-    <row r="70" spans="1:4" hidden="1">
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70">
         <f>Tickets!A69</f>
         <v>152</v>
@@ -14055,7 +14187,7 @@
         <v>#152: Review Anforderungsspezifikation</v>
       </c>
     </row>
-    <row r="71" spans="1:4" hidden="1">
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71">
         <f>Tickets!A70</f>
         <v>151</v>
@@ -14073,7 +14205,7 @@
         <v>#151: Anforderderungsspezifikation</v>
       </c>
     </row>
-    <row r="72" spans="1:4" hidden="1">
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72">
         <f>Tickets!A71</f>
         <v>150</v>
@@ -14091,7 +14223,7 @@
         <v>#150: Android: Übermittlung an Server implementieren</v>
       </c>
     </row>
-    <row r="73" spans="1:4" hidden="1">
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73">
         <f>Tickets!A72</f>
         <v>149</v>
@@ -14109,7 +14241,7 @@
         <v>#149: Android: Business Logik Start/Stopp implementieren</v>
       </c>
     </row>
-    <row r="74" spans="1:4" hidden="1">
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74">
         <f>Tickets!A73</f>
         <v>148</v>
@@ -14127,7 +14259,7 @@
         <v>#148: Android: GUI programmieren</v>
       </c>
     </row>
-    <row r="75" spans="1:4" hidden="1">
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75">
         <f>Tickets!A74</f>
         <v>147</v>
@@ -14145,7 +14277,7 @@
         <v>#147: RoR: Arbeitsstunden Schnittstelle</v>
       </c>
     </row>
-    <row r="76" spans="1:4" hidden="1">
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76">
         <f>Tickets!A75</f>
         <v>146</v>
@@ -14163,7 +14295,7 @@
         <v>#146: RoR: Arbeitsstunden Verwaltung</v>
       </c>
     </row>
-    <row r="77" spans="1:4" hidden="1">
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77">
         <f>Tickets!A76</f>
         <v>145</v>
@@ -14181,7 +14313,7 @@
         <v>#145: RoR: Login / Logout</v>
       </c>
     </row>
-    <row r="78" spans="1:4" hidden="1">
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78">
         <f>Tickets!A77</f>
         <v>144</v>
@@ -14199,7 +14331,7 @@
         <v>#144: RoR: Benutzerverwaltung</v>
       </c>
     </row>
-    <row r="79" spans="1:4" hidden="1">
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79">
         <f>Tickets!A78</f>
         <v>143</v>
@@ -14217,7 +14349,7 @@
         <v>#143: Ruby / Ruby on Rails Tutorials</v>
       </c>
     </row>
-    <row r="80" spans="1:4" hidden="1">
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80">
         <f>Tickets!A79</f>
         <v>141</v>
@@ -14235,7 +14367,7 @@
         <v>#141: Deployment RoR auf Testumgebung</v>
       </c>
     </row>
-    <row r="81" spans="1:4" hidden="1">
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81">
         <f>Tickets!A80</f>
         <v>140</v>
@@ -14253,7 +14385,7 @@
         <v>#140: Deployment auf Liveumgebung</v>
       </c>
     </row>
-    <row r="82" spans="1:4" hidden="1">
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82">
         <f>Tickets!A81</f>
         <v>139</v>
@@ -14271,7 +14403,7 @@
         <v>#139: Review Dokumente</v>
       </c>
     </row>
-    <row r="83" spans="1:4" hidden="1">
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83">
         <f>Tickets!A82</f>
         <v>137</v>
@@ -14289,7 +14421,7 @@
         <v>#137: Review Use Cases</v>
       </c>
     </row>
-    <row r="84" spans="1:4" hidden="1">
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84">
         <f>Tickets!A83</f>
         <v>136</v>
@@ -14307,7 +14439,7 @@
         <v>#136: Design Klassendiagramme</v>
       </c>
     </row>
-    <row r="85" spans="1:4" hidden="1">
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85">
         <f>Tickets!A84</f>
         <v>135</v>
@@ -14325,7 +14457,7 @@
         <v>#135: Interaktionsdiagramme</v>
       </c>
     </row>
-    <row r="86" spans="1:4" hidden="1">
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86">
         <f>Tickets!A85</f>
         <v>134</v>
@@ -14343,7 +14475,7 @@
         <v>#134: Sitzung</v>
       </c>
     </row>
-    <row r="87" spans="1:4" hidden="1">
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87">
         <f>Tickets!A86</f>
         <v>133</v>
@@ -14361,7 +14493,7 @@
         <v>#133: Sitzung</v>
       </c>
     </row>
-    <row r="88" spans="1:4" hidden="1">
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88">
         <f>Tickets!A87</f>
         <v>132</v>
@@ -14379,7 +14511,7 @@
         <v>#132: Sitzung</v>
       </c>
     </row>
-    <row r="89" spans="1:4" hidden="1">
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89">
         <f>Tickets!A88</f>
         <v>131</v>
@@ -14397,7 +14529,7 @@
         <v>#131: Sitzung</v>
       </c>
     </row>
-    <row r="90" spans="1:4" hidden="1">
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90">
         <f>Tickets!A89</f>
         <v>130</v>
@@ -14415,7 +14547,7 @@
         <v>#130: Sitzung</v>
       </c>
     </row>
-    <row r="91" spans="1:4" hidden="1">
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91">
         <f>Tickets!A90</f>
         <v>129</v>
@@ -14433,7 +14565,7 @@
         <v>#129: Sitzungsprotokolle</v>
       </c>
     </row>
-    <row r="92" spans="1:4" hidden="1">
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92">
         <f>Tickets!A91</f>
         <v>128</v>
@@ -14451,7 +14583,7 @@
         <v>#128: Sitzungsprotokolle</v>
       </c>
     </row>
-    <row r="93" spans="1:4" hidden="1">
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93">
         <f>Tickets!A92</f>
         <v>127</v>
@@ -14469,7 +14601,7 @@
         <v>#127: Sitzungsprotokolle</v>
       </c>
     </row>
-    <row r="94" spans="1:4" hidden="1">
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94">
         <f>Tickets!A93</f>
         <v>126</v>
@@ -14487,7 +14619,7 @@
         <v>#126: Sitzungsprotokolle</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95">
         <f>Tickets!A126</f>
         <v>85</v>
@@ -14505,7 +14637,7 @@
         <v>#85: Risikomanagement erarbeiten</v>
       </c>
     </row>
-    <row r="96" spans="1:4" hidden="1">
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96">
         <f>Tickets!A95</f>
         <v>124</v>
@@ -14523,7 +14655,7 @@
         <v>#124: Review</v>
       </c>
     </row>
-    <row r="97" spans="1:4" hidden="1">
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97">
         <f>Tickets!A96</f>
         <v>123</v>
@@ -14541,7 +14673,7 @@
         <v>#123: Usability Tests</v>
       </c>
     </row>
-    <row r="98" spans="1:4" hidden="1">
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98">
         <f>Tickets!A97</f>
         <v>121</v>
@@ -14559,7 +14691,7 @@
         <v>#121: Usability Tests</v>
       </c>
     </row>
-    <row r="99" spans="1:4" hidden="1">
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99">
         <f>Tickets!A98</f>
         <v>120</v>
@@ -14577,7 +14709,7 @@
         <v>#120: Bugfixing</v>
       </c>
     </row>
-    <row r="100" spans="1:4" hidden="1">
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100">
         <f>Tickets!A99</f>
         <v>117</v>
@@ -14595,7 +14727,7 @@
         <v>#117: Code Review</v>
       </c>
     </row>
-    <row r="101" spans="1:4" hidden="1">
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101">
         <f>Tickets!A100</f>
         <v>116</v>
@@ -14613,7 +14745,7 @@
         <v>#116: Code Review</v>
       </c>
     </row>
-    <row r="102" spans="1:4" hidden="1">
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102">
         <f>Tickets!A101</f>
         <v>115</v>
@@ -14631,7 +14763,7 @@
         <v>#115: Code Review</v>
       </c>
     </row>
-    <row r="103" spans="1:4" hidden="1">
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103">
         <f>Tickets!A102</f>
         <v>114</v>
@@ -14649,7 +14781,7 @@
         <v>#114: Unit Tests</v>
       </c>
     </row>
-    <row r="104" spans="1:4" hidden="1">
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104">
         <f>Tickets!A103</f>
         <v>113</v>
@@ -14667,7 +14799,7 @@
         <v>#113: Unit Tests</v>
       </c>
     </row>
-    <row r="105" spans="1:4" hidden="1">
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105">
         <f>Tickets!A104</f>
         <v>112</v>
@@ -14685,7 +14817,7 @@
         <v>#112: Unit Tests definieren und ausführen</v>
       </c>
     </row>
-    <row r="106" spans="1:4" hidden="1">
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106">
         <f>Tickets!A105</f>
         <v>111</v>
@@ -14703,7 +14835,7 @@
         <v>#111: Systemtests</v>
       </c>
     </row>
-    <row r="107" spans="1:4" hidden="1">
+    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107">
         <f>Tickets!A106</f>
         <v>110</v>
@@ -14721,7 +14853,7 @@
         <v>#110: Systemtests</v>
       </c>
     </row>
-    <row r="108" spans="1:4" hidden="1">
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108">
         <f>Tickets!A107</f>
         <v>109</v>
@@ -14739,7 +14871,7 @@
         <v>#109: Systemtests definieren und ausführen</v>
       </c>
     </row>
-    <row r="109" spans="1:4" hidden="1">
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109">
         <f>Tickets!A108</f>
         <v>108</v>
@@ -14757,7 +14889,7 @@
         <v>#108: UC Rapport Fully Dressed</v>
       </c>
     </row>
-    <row r="110" spans="1:4" hidden="1">
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110">
         <f>Tickets!A109</f>
         <v>107</v>
@@ -14775,7 +14907,7 @@
         <v>#107: UC Rapport Casual Style</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111">
         <f>Tickets!A43</f>
         <v>179</v>
@@ -14793,7 +14925,7 @@
         <v>#179: Sitzung 07.03.11</v>
       </c>
     </row>
-    <row r="112" spans="1:4" hidden="1">
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112">
         <f>Tickets!A111</f>
         <v>104</v>
@@ -14811,7 +14943,7 @@
         <v>#104: Bedienungsanleitung</v>
       </c>
     </row>
-    <row r="113" spans="1:4" hidden="1">
+    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113">
         <f>Tickets!A112</f>
         <v>103</v>
@@ -14829,7 +14961,7 @@
         <v>#103: Schlusspräsentation vorbereiten</v>
       </c>
     </row>
-    <row r="114" spans="1:4" hidden="1">
+    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114">
         <f>Tickets!A113</f>
         <v>102</v>
@@ -14847,7 +14979,7 @@
         <v>#102: UC Verwaltung Fully Dressed</v>
       </c>
     </row>
-    <row r="115" spans="1:4" hidden="1">
+    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115">
         <f>Tickets!A114</f>
         <v>101</v>
@@ -14865,7 +14997,7 @@
         <v>#101: UC Verwaltung Casual Style</v>
       </c>
     </row>
-    <row r="116" spans="1:4" hidden="1">
+    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116">
         <f>Tickets!A115</f>
         <v>99</v>
@@ -14883,7 +15015,7 @@
         <v>#99: UC Mitarbeiter Rapport Fully Dressed</v>
       </c>
     </row>
-    <row r="117" spans="1:4" hidden="1">
+    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117">
         <f>Tickets!A116</f>
         <v>97</v>
@@ -14901,7 +15033,7 @@
         <v>#97: Operation Contracs</v>
       </c>
     </row>
-    <row r="118" spans="1:4" hidden="1">
+    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118">
         <f>Tickets!A117</f>
         <v>95</v>
@@ -14919,7 +15051,7 @@
         <v>#95: Systemsequenzdiagramm</v>
       </c>
     </row>
-    <row r="119" spans="1:4" hidden="1">
+    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119">
         <f>Tickets!A118</f>
         <v>94</v>
@@ -14937,7 +15069,7 @@
         <v>#94: Domainanalyse</v>
       </c>
     </row>
-    <row r="120" spans="1:4" hidden="1">
+    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120">
         <f>Tickets!A119</f>
         <v>93</v>
@@ -14955,7 +15087,7 @@
         <v>#93: Vision</v>
       </c>
     </row>
-    <row r="121" spans="1:4" hidden="1">
+    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121">
         <f>Tickets!A120</f>
         <v>92</v>
@@ -14973,7 +15105,7 @@
         <v>#92: Paperprototyping</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122">
         <f>Tickets!A110</f>
         <v>105</v>
@@ -14991,7 +15123,7 @@
         <v>#105: Projektplan Review</v>
       </c>
     </row>
-    <row r="123" spans="1:4" hidden="1">
+    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123">
         <f>Tickets!A122</f>
         <v>89</v>
@@ -15009,7 +15141,7 @@
         <v>#89: Fachliteratur</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124">
         <f>Tickets!A127</f>
         <v>84</v>
@@ -15027,7 +15159,7 @@
         <v>#84: Codestyleguide erstellen</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125">
         <f>Tickets!A18</f>
         <v>205</v>
@@ -15045,7 +15177,7 @@
         <v>#205: Sitzung 28.02.11</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126">
         <f>Tickets!A131</f>
         <v>80</v>
@@ -15063,7 +15195,7 @@
         <v>#80: Logo erstellen</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127">
         <f>Tickets!A1</f>
         <v>222</v>
@@ -15081,7 +15213,7 @@
         <v>#222: Sitzung 08.03.11</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128">
         <f>Tickets!A94</f>
         <v>125</v>
@@ -15099,7 +15231,7 @@
         <v>#125: Sitzungsprotokolle</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129">
         <f>Tickets!A123</f>
         <v>88</v>
@@ -15117,7 +15249,7 @@
         <v>#88: Glossar</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130">
         <f>Tickets!A124</f>
         <v>87</v>
@@ -15135,7 +15267,7 @@
         <v>#87: Qualitätsmassnahmen</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131">
         <f>Tickets!A125</f>
         <v>86</v>
@@ -15153,7 +15285,7 @@
         <v>#86: Managementabläufe</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132">
         <f>Tickets!A128</f>
         <v>83</v>
@@ -15171,7 +15303,7 @@
         <v>#83: Dokumentvorlage</v>
       </c>
     </row>
-    <row r="133" spans="1:4" hidden="1">
+    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133">
         <f>Tickets!A132</f>
         <v>79</v>
@@ -15189,7 +15321,7 @@
         <v>#79: Projektplan</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134">
         <f>Tickets!A130</f>
         <v>81</v>
@@ -15207,7 +15339,7 @@
         <v>#81: Redmine Projekt aufsetzen</v>
       </c>
     </row>
-    <row r="135" spans="1:4" hidden="1">
+    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135">
         <f>Tickets!A134</f>
         <v>0</v>
@@ -15225,7 +15357,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="136" spans="1:4" hidden="1">
+    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136">
         <f>Tickets!A135</f>
         <v>0</v>
@@ -15243,7 +15375,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="137" spans="1:4" hidden="1">
+    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137">
         <f>Tickets!A136</f>
         <v>0</v>
@@ -15261,7 +15393,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="138" spans="1:4" hidden="1">
+    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138">
         <f>Tickets!A137</f>
         <v>0</v>
@@ -15279,7 +15411,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="139" spans="1:4" hidden="1">
+    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139">
         <f>Tickets!A138</f>
         <v>0</v>
@@ -15297,7 +15429,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="140" spans="1:4" hidden="1">
+    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140">
         <f>Tickets!A139</f>
         <v>0</v>
@@ -15315,7 +15447,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="141" spans="1:4" hidden="1">
+    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141">
         <f>Tickets!A140</f>
         <v>0</v>
@@ -15333,7 +15465,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="142" spans="1:4" hidden="1">
+    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142">
         <f>Tickets!A141</f>
         <v>0</v>
@@ -15351,7 +15483,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="143" spans="1:4" hidden="1">
+    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143">
         <f>Tickets!A142</f>
         <v>0</v>
@@ -15369,7 +15501,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="144" spans="1:4" hidden="1">
+    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144">
         <f>Tickets!A143</f>
         <v>0</v>
@@ -15387,7 +15519,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="145" spans="1:4" hidden="1">
+    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145">
         <f>Tickets!A144</f>
         <v>0</v>
@@ -15405,7 +15537,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="146" spans="1:4" hidden="1">
+    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146">
         <f>Tickets!A145</f>
         <v>0</v>
@@ -15423,7 +15555,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="147" spans="1:4" hidden="1">
+    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147">
         <f>Tickets!A146</f>
         <v>0</v>
@@ -15441,7 +15573,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="148" spans="1:4" hidden="1">
+    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148">
         <f>Tickets!A147</f>
         <v>0</v>
@@ -15459,7 +15591,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="149" spans="1:4" hidden="1">
+    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149">
         <f>Tickets!A148</f>
         <v>0</v>
@@ -15477,7 +15609,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="150" spans="1:4" hidden="1">
+    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150">
         <f>Tickets!A149</f>
         <v>0</v>
@@ -15495,7 +15627,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="151" spans="1:4" hidden="1">
+    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151">
         <f>Tickets!A150</f>
         <v>0</v>
@@ -15513,7 +15645,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="152" spans="1:4" hidden="1">
+    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152">
         <f>Tickets!A151</f>
         <v>0</v>
@@ -15531,7 +15663,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="153" spans="1:4" hidden="1">
+    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153">
         <f>Tickets!A152</f>
         <v>0</v>
@@ -15549,7 +15681,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="154" spans="1:4" hidden="1">
+    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154">
         <f>Tickets!A153</f>
         <v>0</v>
@@ -15567,7 +15699,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="155" spans="1:4" hidden="1">
+    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155">
         <f>Tickets!A154</f>
         <v>0</v>
@@ -15585,7 +15717,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="156" spans="1:4" hidden="1">
+    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156">
         <f>Tickets!A155</f>
         <v>0</v>
@@ -15603,7 +15735,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="157" spans="1:4" hidden="1">
+    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157">
         <f>Tickets!A156</f>
         <v>0</v>
@@ -15621,7 +15753,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="158" spans="1:4" hidden="1">
+    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158">
         <f>Tickets!A157</f>
         <v>0</v>
@@ -15639,7 +15771,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="159" spans="1:4" hidden="1">
+    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159">
         <f>Tickets!A158</f>
         <v>0</v>
@@ -15657,7 +15789,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="160" spans="1:4" hidden="1">
+    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160">
         <f>Tickets!A159</f>
         <v>0</v>
@@ -15675,7 +15807,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="161" spans="1:4" hidden="1">
+    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161">
         <f>Tickets!A160</f>
         <v>0</v>
@@ -15693,7 +15825,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="162" spans="1:4" hidden="1">
+    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162">
         <f>Tickets!A161</f>
         <v>0</v>
@@ -15711,7 +15843,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="163" spans="1:4" hidden="1">
+    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163">
         <f>Tickets!A162</f>
         <v>0</v>
@@ -15729,7 +15861,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="164" spans="1:4" hidden="1">
+    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164">
         <f>Tickets!A163</f>
         <v>0</v>
@@ -15747,7 +15879,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="165" spans="1:4" hidden="1">
+    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165">
         <f>Tickets!A164</f>
         <v>0</v>
@@ -15765,7 +15897,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="166" spans="1:4" hidden="1">
+    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166">
         <f>Tickets!A165</f>
         <v>0</v>
@@ -15783,7 +15915,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="167" spans="1:4" hidden="1">
+    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167">
         <f>Tickets!A166</f>
         <v>0</v>
@@ -15801,7 +15933,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="168" spans="1:4" hidden="1">
+    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168">
         <f>Tickets!A167</f>
         <v>0</v>
@@ -15819,7 +15951,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="169" spans="1:4" hidden="1">
+    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169">
         <f>Tickets!A168</f>
         <v>0</v>
@@ -15837,7 +15969,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="170" spans="1:4" hidden="1">
+    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170">
         <f>Tickets!A169</f>
         <v>0</v>
@@ -15855,7 +15987,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="171" spans="1:4" hidden="1">
+    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171">
         <f>Tickets!A170</f>
         <v>0</v>
@@ -15873,7 +16005,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="172" spans="1:4" hidden="1">
+    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172">
         <f>Tickets!A171</f>
         <v>0</v>
@@ -15891,7 +16023,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="173" spans="1:4" hidden="1">
+    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173">
         <f>Tickets!A172</f>
         <v>0</v>
@@ -15909,7 +16041,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="174" spans="1:4" hidden="1">
+    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174">
         <f>Tickets!A173</f>
         <v>0</v>
@@ -15927,7 +16059,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="175" spans="1:4" hidden="1">
+    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175">
         <f>Tickets!A174</f>
         <v>0</v>
@@ -15945,7 +16077,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="176" spans="1:4" hidden="1">
+    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176">
         <f>Tickets!A175</f>
         <v>0</v>
@@ -15963,7 +16095,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="177" spans="1:4" hidden="1">
+    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177">
         <f>Tickets!A176</f>
         <v>0</v>
@@ -15981,7 +16113,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="178" spans="1:4" hidden="1">
+    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178">
         <f>Tickets!A177</f>
         <v>0</v>
@@ -15999,7 +16131,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="179" spans="1:4" hidden="1">
+    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179">
         <f>Tickets!A178</f>
         <v>0</v>
@@ -16017,7 +16149,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="180" spans="1:4" hidden="1">
+    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180">
         <f>Tickets!A179</f>
         <v>0</v>
@@ -16035,7 +16167,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="181" spans="1:4" hidden="1">
+    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181">
         <f>Tickets!A180</f>
         <v>0</v>
@@ -16053,7 +16185,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="182" spans="1:4" hidden="1">
+    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182">
         <f>Tickets!A181</f>
         <v>0</v>
@@ -16071,7 +16203,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="183" spans="1:4" hidden="1">
+    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183">
         <f>Tickets!A182</f>
         <v>0</v>
@@ -16089,7 +16221,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="184" spans="1:4" hidden="1">
+    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184">
         <f>Tickets!A183</f>
         <v>0</v>
@@ -16107,7 +16239,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="185" spans="1:4" hidden="1">
+    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185">
         <f>Tickets!A184</f>
         <v>0</v>
@@ -16125,7 +16257,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="186" spans="1:4" hidden="1">
+    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186">
         <f>Tickets!A185</f>
         <v>0</v>
@@ -16143,7 +16275,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="187" spans="1:4" hidden="1">
+    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187">
         <f>Tickets!A186</f>
         <v>0</v>
@@ -16161,7 +16293,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="188" spans="1:4" hidden="1">
+    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188">
         <f>Tickets!A187</f>
         <v>0</v>
@@ -16179,7 +16311,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="189" spans="1:4" hidden="1">
+    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189">
         <f>Tickets!A188</f>
         <v>0</v>
@@ -16197,7 +16329,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="190" spans="1:4" hidden="1">
+    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190">
         <f>Tickets!A189</f>
         <v>0</v>
@@ -16215,7 +16347,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="191" spans="1:4" hidden="1">
+    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191">
         <f>Tickets!A190</f>
         <v>0</v>
@@ -16233,7 +16365,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="192" spans="1:4" hidden="1">
+    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192">
         <f>Tickets!A191</f>
         <v>0</v>
@@ -16251,7 +16383,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="193" spans="1:4" hidden="1">
+    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193">
         <f>Tickets!A192</f>
         <v>0</v>
@@ -16269,7 +16401,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="194" spans="1:4" hidden="1">
+    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194">
         <f>Tickets!A193</f>
         <v>0</v>
@@ -16287,7 +16419,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="195" spans="1:4" hidden="1">
+    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195">
         <f>Tickets!A194</f>
         <v>0</v>
@@ -16305,7 +16437,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="196" spans="1:4" hidden="1">
+    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196">
         <f>Tickets!A195</f>
         <v>0</v>
@@ -16323,7 +16455,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="197" spans="1:4" hidden="1">
+    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197">
         <f>Tickets!A196</f>
         <v>0</v>
@@ -16341,7 +16473,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="198" spans="1:4" hidden="1">
+    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198">
         <f>Tickets!A197</f>
         <v>0</v>
@@ -16359,7 +16491,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="199" spans="1:4" hidden="1">
+    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199">
         <f>Tickets!A198</f>
         <v>0</v>
@@ -16377,7 +16509,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="200" spans="1:4" hidden="1">
+    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200">
         <f>Tickets!A199</f>
         <v>0</v>
@@ -16395,7 +16527,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="201" spans="1:4" hidden="1">
+    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201">
         <f>Tickets!A200</f>
         <v>0</v>
@@ -16413,7 +16545,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="202" spans="1:4" hidden="1">
+    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202">
         <f>Tickets!A201</f>
         <v>0</v>
@@ -16431,7 +16563,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="203" spans="1:4" hidden="1">
+    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203">
         <f>Tickets!A202</f>
         <v>0</v>
@@ -16449,7 +16581,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="204" spans="1:4" hidden="1">
+    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204">
         <f>Tickets!A203</f>
         <v>0</v>
@@ -16467,7 +16599,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="205" spans="1:4" hidden="1">
+    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205">
         <f>Tickets!A204</f>
         <v>0</v>
@@ -16485,7 +16617,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="206" spans="1:4" hidden="1">
+    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206">
         <f>Tickets!A205</f>
         <v>0</v>
@@ -16503,7 +16635,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="207" spans="1:4" hidden="1">
+    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207">
         <f>Tickets!A206</f>
         <v>0</v>
@@ -16521,7 +16653,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="208" spans="1:4" hidden="1">
+    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208">
         <f>Tickets!A207</f>
         <v>0</v>
@@ -16539,7 +16671,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="209" spans="1:4" hidden="1">
+    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209">
         <f>Tickets!A208</f>
         <v>0</v>
@@ -16557,7 +16689,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="210" spans="1:4" hidden="1">
+    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210">
         <f>Tickets!A209</f>
         <v>0</v>
@@ -16575,7 +16707,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="211" spans="1:4" hidden="1">
+    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211">
         <f>Tickets!A210</f>
         <v>0</v>
@@ -16593,7 +16725,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="212" spans="1:4" hidden="1">
+    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212">
         <f>Tickets!A211</f>
         <v>0</v>
@@ -16611,7 +16743,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="213" spans="1:4" hidden="1">
+    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213">
         <f>Tickets!A212</f>
         <v>0</v>
@@ -16629,7 +16761,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="214" spans="1:4" hidden="1">
+    <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214">
         <f>Tickets!A213</f>
         <v>0</v>
@@ -16647,7 +16779,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="215" spans="1:4" hidden="1">
+    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215">
         <f>Tickets!A214</f>
         <v>0</v>
@@ -16665,7 +16797,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="216" spans="1:4" hidden="1">
+    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216">
         <f>Tickets!A215</f>
         <v>0</v>
@@ -16683,7 +16815,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="217" spans="1:4" hidden="1">
+    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217">
         <f>Tickets!A216</f>
         <v>0</v>
@@ -16701,7 +16833,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="218" spans="1:4" hidden="1">
+    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218">
         <f>Tickets!A217</f>
         <v>0</v>
@@ -16719,7 +16851,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="219" spans="1:4" hidden="1">
+    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219">
         <f>Tickets!A218</f>
         <v>0</v>
@@ -16737,7 +16869,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="220" spans="1:4" hidden="1">
+    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220">
         <f>Tickets!A219</f>
         <v>0</v>
@@ -16755,7 +16887,7 @@
         <v xml:space="preserve">#0: </v>
       </c>
     </row>
-    <row r="221" spans="1:4" hidden="1">
+    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221">
         <f>Tickets!A220</f>
         <v>0</v>
@@ -16801,14 +16933,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="P83" sqref="P83"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="N92" sqref="N92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/doc/01_Projektplan/zeiterfassung.xlsx
+++ b/doc/01_Projektplan/zeiterfassung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="10410" windowHeight="7335" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="10410" windowHeight="7335" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Timelog" sheetId="23" r:id="rId1"/>
@@ -1097,26 +1097,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Stunden pro Woche</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -29528,7 +29509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
@@ -34634,8 +34615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
